--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$DK$1:$DK$5</definedName>
     <definedName name="oxygenationstatusofsample">'cv_sample'!$AY$1:$AY$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$DH$1:$DH$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="825">
   <si>
     <t>alias</t>
   </si>
@@ -455,6 +455,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -554,6 +566,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -671,6 +701,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -678,6 +711,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -3068,10 +3104,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3112,10 +3148,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3178,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3162,7 +3198,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3179,7 +3215,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3196,7 +3232,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3213,7 +3249,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3230,7 +3266,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3247,7 +3283,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3264,7 +3300,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3281,7 +3317,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3298,7 +3334,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3312,7 +3348,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3326,7 +3362,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3340,7 +3376,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3354,7 +3390,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3364,8 +3400,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3375,8 +3414,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3386,8 +3428,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3397,8 +3442,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3409,7 +3457,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3420,7 +3468,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3431,7 +3479,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3442,7 +3490,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3453,7 +3501,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3464,7 +3512,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3475,7 +3523,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3486,7 +3534,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3497,7 +3545,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3508,7 +3556,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3519,7 +3567,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3530,7 +3578,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3541,7 +3589,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3552,7 +3600,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3560,7 +3608,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3568,7 +3616,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3576,7 +3624,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3584,7 +3632,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3592,7 +3640,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3600,7 +3648,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3608,7 +3656,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3616,7 +3664,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3624,7 +3672,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3632,176 +3680,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3826,27 +3914,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3869,122 +3957,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4011,702 +4099,702 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -4744,1578 +4832,1578 @@
   <sheetData>
     <row r="1" spans="28:115">
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AJ1" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AY1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="DG1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="DH1" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="DK1" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="28:115">
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AJ2" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AY2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="DG2" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="DH2" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="DK2" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="28:115">
       <c r="AB3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AJ3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="DG3" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="DH3" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="DK3" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="28:115">
       <c r="AJ4" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="DG4" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="DH4" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="DK4" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="28:115">
       <c r="AJ5" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="DG5" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="DH5" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="DK5" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="6" spans="28:115">
       <c r="AJ6" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="DG6" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="DH6" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="28:115">
       <c r="AJ7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="DG7" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="DH7" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="28:115">
       <c r="AJ8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="DG8" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="28:115">
       <c r="AJ9" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="DG9" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="28:115">
       <c r="AJ10" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="DG10" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11" spans="28:115">
       <c r="AJ11" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="DG11" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="28:115">
       <c r="AJ12" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="DG12" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="28:115">
       <c r="AJ13" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="DG13" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="28:115">
       <c r="AJ14" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="DG14" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="28:115">
       <c r="AJ15" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="DG15" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="28:115">
       <c r="AJ16" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="DG16" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="36:111">
       <c r="AJ17" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="DG17" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="36:111">
       <c r="AJ18" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="DG18" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19" spans="36:111">
       <c r="AJ19" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="DG19" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="36:111">
       <c r="AJ20" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="DG20" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="36:111">
       <c r="AJ21" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="DG21" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="36:111">
       <c r="AJ22" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="DG22" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23" spans="36:111">
       <c r="AJ23" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="DG23" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
     <row r="24" spans="36:111">
       <c r="AJ24" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="DG24" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="25" spans="36:111">
       <c r="AJ25" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="DG25" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26" spans="36:111">
       <c r="AJ26" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="DG26" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="27" spans="36:111">
       <c r="AJ27" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="DG27" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="28" spans="36:111">
       <c r="AJ28" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="DG28" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="36:111">
       <c r="AJ29" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="DG29" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" spans="36:111">
       <c r="AJ30" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="DG30" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="36:111">
       <c r="AJ31" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="36:111">
       <c r="AJ32" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="36:36">
       <c r="AJ33" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="36:36">
       <c r="AJ34" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="36:36">
       <c r="AJ35" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="36:36">
       <c r="AJ36" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="36:36">
       <c r="AJ37" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="36:36">
       <c r="AJ38" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="36:36">
       <c r="AJ39" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="36:36">
       <c r="AJ40" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="36:36">
       <c r="AJ41" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="36:36">
       <c r="AJ42" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="36:36">
       <c r="AJ43" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="36:36">
       <c r="AJ44" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="36:36">
       <c r="AJ45" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="36:36">
       <c r="AJ46" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="36:36">
       <c r="AJ47" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="36:36">
       <c r="AJ48" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="36:36">
       <c r="AJ49" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="36:36">
       <c r="AJ50" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="36:36">
       <c r="AJ51" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="36:36">
       <c r="AJ52" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="36:36">
       <c r="AJ53" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="36:36">
       <c r="AJ54" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="36:36">
       <c r="AJ55" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="36:36">
       <c r="AJ56" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="36:36">
       <c r="AJ57" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="36:36">
       <c r="AJ58" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="36:36">
       <c r="AJ59" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="36:36">
       <c r="AJ60" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="36:36">
       <c r="AJ61" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="36:36">
       <c r="AJ62" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="36:36">
       <c r="AJ63" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="36:36">
       <c r="AJ64" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -884,8 +884,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1026,8 +1025,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -1900,15 +1898,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1920,8 +1916,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>broad-scale environmental context</t>
@@ -1945,8 +1940,7 @@
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>source material identifiers</t>
@@ -1976,15 +1970,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements Units: 
-                    </t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
   </si>
   <si>
     <t>aerobic</t>
@@ -2008,15 +2000,13 @@
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2052,43 +2042,37 @@
     <t>alkalinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate Units: 
-                    </t>
+    <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
     <t>mean friction velocity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of mean friction velocity Units: 
-                    </t>
+    <t>(Optional) Measurement of mean friction velocity (Units: m/s)</t>
   </si>
   <si>
     <t>mean peak friction velocity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of mean peak friction velocity Units: 
-                    </t>
+    <t>(Optional) Measurement of mean peak friction velocity (Units: m/s)</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Pressure to which the sample is subject, in atmospheres Units: 
-                    </t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
   </si>
   <si>
     <t>temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of the sample at time of sampling Units: 
-                    </t>
+    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>turbidity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Turbidity measurement Units: 
-                    </t>
+    <t>(Optional) Turbidity measurement (Units: NTU)</t>
   </si>
   <si>
     <t>pH</t>
@@ -2100,50 +2084,43 @@
     <t>alkyl diethers</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of alkyl diethers Units: 
-                    </t>
+    <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
     <t>aminopeptidase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of aminopeptidase activity Units: 
-                    </t>
+    <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
   </si>
   <si>
     <t>ammonium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of ammonium Units: 
-                    </t>
+    <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
     <t>bacterial carbon production</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of bacterial carbon production Units: 
-                    </t>
+    <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
   </si>
   <si>
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of bishomohopanol Units: 
-                    </t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
   </si>
   <si>
     <t>bromide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of bromide Units: 
-                    </t>
+    <t>(Optional) Concentration of bromide (Units: µmol/L)</t>
   </si>
   <si>
     <t>calcium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of calcium Units: 
-                    </t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2155,246 +2132,211 @@
     <t>chloride</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of chloride Units: 
-                    </t>
+    <t>(Optional) Concentration of chloride (Units: mg/L)</t>
   </si>
   <si>
     <t>chlorophyll</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of chlorophyll Units: 
-                    </t>
+    <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
     <t>diether lipids</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of diether lipids; can include multiple types of diether lipids Units: 
-                    </t>
+    <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
     <t>dissolved carbon dioxide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved carbon dioxide Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved hydrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved hydrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved inorganic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dissolved inorganic carbon concentration Units: 
-                    </t>
+    <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
     <t>dissolved organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>dissolved organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 Units: 
-                    </t>
+    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
   </si>
   <si>
     <t>methane</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Methane (gas) amount or concentration at the time of sampling Units: 
-                    </t>
+    <t>(Optional) Methane (gas) amount or concentration at the time of sampling (Units: µM/L)</t>
   </si>
   <si>
     <t>dissolved oxygen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of dissolved oxygen Units: 
-                    </t>
+    <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
     <t>glucosidase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Measurement of glucosidase activity Units: 
-                    </t>
+    <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
   </si>
   <si>
     <t>magnesium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of magnesium Units: 
-                    </t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
   </si>
   <si>
     <t>n-alkanes</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of n-alkanes; can include multiple n-alkanes Units: 
-                    </t>
+    <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrate Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrate (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrite</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrite Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
     <t>nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of nitrogen (total) Units: 
-                    </t>
+    <t>(Optional) Concentration of nitrogen (total) (Units: µmol/L)</t>
   </si>
   <si>
     <t>organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>organic matter</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic matter Units: 
-                    </t>
+    <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
     <t>organic nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of organic nitrogen Units: 
-                    </t>
+    <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
     <t>particulate organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of particulate organic carbon Units: 
-                    </t>
+    <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
     <t>petroleum hydrocarbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of petroleum hydrocarbon Units: 
-                    </t>
+    <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
   </si>
   <si>
     <t>phaeopigments</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phaeopigments; can include multiple phaeopigments Units: 
-                    </t>
+    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: µg/L)</t>
   </si>
   <si>
     <t>phosphate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phosphate Units: 
-                    </t>
+    <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
     <t>phospholipid fatty acid</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of phospholipid fatty acids; can include multiple values Units: 
-                    </t>
+    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
   </si>
   <si>
     <t>potassium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of potassium Units: 
-                    </t>
+    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
     <t>redox potential</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential Units: 
-                    </t>
+    <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
   </si>
   <si>
     <t>salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>total carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total carbon content Units: 
-                    </t>
+    <t>(Optional) Total carbon content (Units: µg/L)</t>
   </si>
   <si>
     <t>silicate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of silicate Units: 
-                    </t>
+    <t>(Optional) Concentration of silicate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sodium</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Sodium concentration Units: 
-                    </t>
+    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
     <t>total organic carbon</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content Units: 
-                    </t>
+    <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
   </si>
   <si>
     <t>water content</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Water content measurement Units: 
-                    </t>
+    <t>(Optional) Water content measurement (Units: g/g)</t>
   </si>
   <si>
     <t>sulfate</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of sulfate Units: 
-                    </t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Concentration of sulfide Units: 
-                    </t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
   </si>
   <si>
     <t>total nitrogen</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total nitrogen content of the sample Units: 
-                    </t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
   </si>
   <si>
     <t>subspecific genetic lineage</t>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -104,7 +104,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="826">
   <si>
     <t>alias</t>
   </si>
@@ -1310,12 +1310,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2502,12 +2502,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>depth</t>
@@ -4033,7 +4027,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DN2"/>
+  <dimension ref="A1:DM2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,7 +4036,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118">
+    <row r="1" spans="1:117">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4394,11 +4388,8 @@
       <c r="DM1" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="DN1" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="2" spans="1:118" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:117" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4749,9 +4740,6 @@
       </c>
       <c r="DM2" s="2" t="s">
         <v>825</v>
-      </c>
-      <c r="DN2" s="2" t="s">
-        <v>827</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="827">
   <si>
     <t>alias</t>
   </si>
@@ -816,6 +816,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4044,702 +4047,702 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -4777,1583 +4780,1583 @@
   <sheetData>
     <row r="1" spans="5:29">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AC1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="5:29">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AC2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="5:29">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AC3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="5:29">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AC4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="5:29">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AC5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="5:29">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="5:29">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AC7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="5:29">
       <c r="E8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="5:29">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="5:29">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AC10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="5:29">
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AC11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="5:29">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AC12" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="5:29">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AC13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="5:29">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AC14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="5:29">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AC15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="5:29">
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AC16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="5:29">
       <c r="E17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC17" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="5:29">
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="5:29">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="5:29">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="5:29">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC21" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="5:29">
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="5:29">
       <c r="E23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="5:29">
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="5:29">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="5:29">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="5:29">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="5:29">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="5:29">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AC29" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="5:29">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AC30" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="5:29">
       <c r="AC31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="5:29">
       <c r="AC32" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="29:29">
       <c r="AC33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="29:29">
       <c r="AC34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="29:29">
       <c r="AC35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="29:29">
       <c r="AC36" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="29:29">
       <c r="AC37" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="29:29">
       <c r="AC38" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="29:29">
       <c r="AC39" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="29:29">
       <c r="AC40" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="29:29">
       <c r="AC41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="29:29">
       <c r="AC42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="29:29">
       <c r="AC43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="29:29">
       <c r="AC44" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="29:29">
       <c r="AC45" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="29:29">
       <c r="AC46" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="29:29">
       <c r="AC47" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="29:29">
       <c r="AC48" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="29:29">
       <c r="AC49" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50" spans="29:29">
       <c r="AC50" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="29:29">
       <c r="AC51" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="29:29">
       <c r="AC52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="29:29">
       <c r="AC53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="29:29">
       <c r="AC54" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="29:29">
       <c r="AC55" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="29:29">
       <c r="AC56" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="29:29">
       <c r="AC57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="29:29">
       <c r="AC58" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="29:29">
       <c r="AC59" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="29:29">
       <c r="AC60" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="29:29">
       <c r="AC61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="29:29">
       <c r="AC62" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="29:29">
       <c r="AC63" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="29:29">
       <c r="AC64" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="29:29">
       <c r="AC65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="29:29">
       <c r="AC66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="29:29">
       <c r="AC67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="29:29">
       <c r="AC68" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="29:29">
       <c r="AC69" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="29:29">
       <c r="AC70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="29:29">
       <c r="AC71" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="29:29">
       <c r="AC72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="29:29">
       <c r="AC73" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="29:29">
       <c r="AC74" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="29:29">
       <c r="AC75" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="29:29">
       <c r="AC76" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="29:29">
       <c r="AC77" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="29:29">
       <c r="AC78" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="29:29">
       <c r="AC79" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="29:29">
       <c r="AC80" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="29:29">
       <c r="AC81" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="29:29">
       <c r="AC82" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="29:29">
       <c r="AC83" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="29:29">
       <c r="AC84" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="29:29">
       <c r="AC85" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="29:29">
       <c r="AC86" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="29:29">
       <c r="AC87" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="29:29">
       <c r="AC88" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="29:29">
       <c r="AC89" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="29:29">
       <c r="AC90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="29:29">
       <c r="AC91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="29:29">
       <c r="AC92" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="29:29">
       <c r="AC93" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="29:29">
       <c r="AC94" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="29:29">
       <c r="AC95" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="29:29">
       <c r="AC96" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="29:29">
       <c r="AC97" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98" spans="29:29">
       <c r="AC98" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="29:29">
       <c r="AC99" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="29:29">
       <c r="AC100" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="29:29">
       <c r="AC101" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102" spans="29:29">
       <c r="AC102" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103" spans="29:29">
       <c r="AC103" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="29:29">
       <c r="AC104" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="29:29">
       <c r="AC105" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="29:29">
       <c r="AC106" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107" spans="29:29">
       <c r="AC107" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="29:29">
       <c r="AC108" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="29:29">
       <c r="AC109" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110" spans="29:29">
       <c r="AC110" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111" spans="29:29">
       <c r="AC111" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112" spans="29:29">
       <c r="AC112" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113" spans="29:29">
       <c r="AC113" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="29:29">
       <c r="AC114" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="29:29">
       <c r="AC115" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="29:29">
       <c r="AC116" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="29:29">
       <c r="AC117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="29:29">
       <c r="AC118" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="29:29">
       <c r="AC119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="29:29">
       <c r="AC120" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121" spans="29:29">
       <c r="AC121" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="29:29">
       <c r="AC122" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="29:29">
       <c r="AC123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="29:29">
       <c r="AC124" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="29:29">
       <c r="AC125" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="29:29">
       <c r="AC126" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="29:29">
       <c r="AC127" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="29:29">
       <c r="AC128" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="29:29">
       <c r="AC129" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="29:29">
       <c r="AC130" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="29:29">
       <c r="AC131" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="29:29">
       <c r="AC132" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="29:29">
       <c r="AC133" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="29:29">
       <c r="AC134" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="29:29">
       <c r="AC135" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="29:29">
       <c r="AC136" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137" spans="29:29">
       <c r="AC137" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138" spans="29:29">
       <c r="AC138" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="29:29">
       <c r="AC139" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="29:29">
       <c r="AC140" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="29:29">
       <c r="AC141" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142" spans="29:29">
       <c r="AC142" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143" spans="29:29">
       <c r="AC143" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="29:29">
       <c r="AC144" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="29:29">
       <c r="AC145" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="29:29">
       <c r="AC146" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147" spans="29:29">
       <c r="AC147" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" spans="29:29">
       <c r="AC148" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149" spans="29:29">
       <c r="AC149" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150" spans="29:29">
       <c r="AC150" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151" spans="29:29">
       <c r="AC151" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152" spans="29:29">
       <c r="AC152" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="153" spans="29:29">
       <c r="AC153" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154" spans="29:29">
       <c r="AC154" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="155" spans="29:29">
       <c r="AC155" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" spans="29:29">
       <c r="AC156" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="29:29">
       <c r="AC157" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="158" spans="29:29">
       <c r="AC158" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159" spans="29:29">
       <c r="AC159" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="160" spans="29:29">
       <c r="AC160" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="29:29">
       <c r="AC161" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="29:29">
       <c r="AC162" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="29:29">
       <c r="AC163" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="164" spans="29:29">
       <c r="AC164" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="29:29">
       <c r="AC165" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="29:29">
       <c r="AC166" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="29:29">
       <c r="AC167" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="29:29">
       <c r="AC168" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="29:29">
       <c r="AC169" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="29:29">
       <c r="AC170" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171" spans="29:29">
       <c r="AC171" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="29:29">
       <c r="AC172" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="29:29">
       <c r="AC173" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" spans="29:29">
       <c r="AC174" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="175" spans="29:29">
       <c r="AC175" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="176" spans="29:29">
       <c r="AC176" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177" spans="29:29">
       <c r="AC177" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="178" spans="29:29">
       <c r="AC178" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="29:29">
       <c r="AC179" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180" spans="29:29">
       <c r="AC180" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="181" spans="29:29">
       <c r="AC181" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="182" spans="29:29">
       <c r="AC182" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="29:29">
       <c r="AC183" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184" spans="29:29">
       <c r="AC184" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185" spans="29:29">
       <c r="AC185" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186" spans="29:29">
       <c r="AC186" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="29:29">
       <c r="AC187" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188" spans="29:29">
       <c r="AC188" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="29:29">
       <c r="AC189" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190" spans="29:29">
       <c r="AC190" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191" spans="29:29">
       <c r="AC191" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="192" spans="29:29">
       <c r="AC192" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="193" spans="29:29">
       <c r="AC193" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="29:29">
       <c r="AC194" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="195" spans="29:29">
       <c r="AC195" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="196" spans="29:29">
       <c r="AC196" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="197" spans="29:29">
       <c r="AC197" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="198" spans="29:29">
       <c r="AC198" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="199" spans="29:29">
       <c r="AC199" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="29:29">
       <c r="AC200" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="201" spans="29:29">
       <c r="AC201" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202" spans="29:29">
       <c r="AC202" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203" spans="29:29">
       <c r="AC203" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="29:29">
       <c r="AC204" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="29:29">
       <c r="AC205" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="29:29">
       <c r="AC206" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="207" spans="29:29">
       <c r="AC207" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="29:29">
       <c r="AC208" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="209" spans="29:29">
       <c r="AC209" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="29:29">
       <c r="AC210" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="29:29">
       <c r="AC211" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="29:29">
       <c r="AC212" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="213" spans="29:29">
       <c r="AC213" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="29:29">
       <c r="AC214" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="29:29">
       <c r="AC215" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="29:29">
       <c r="AC216" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="29:29">
       <c r="AC217" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="218" spans="29:29">
       <c r="AC218" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219" spans="29:29">
       <c r="AC219" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="29:29">
       <c r="AC220" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="29:29">
       <c r="AC221" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="29:29">
       <c r="AC222" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="223" spans="29:29">
       <c r="AC223" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224" spans="29:29">
       <c r="AC224" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="225" spans="29:29">
       <c r="AC225" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="29:29">
       <c r="AC226" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227" spans="29:29">
       <c r="AC227" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="228" spans="29:29">
       <c r="AC228" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="229" spans="29:29">
       <c r="AC229" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="230" spans="29:29">
       <c r="AC230" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="231" spans="29:29">
       <c r="AC231" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="232" spans="29:29">
       <c r="AC232" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233" spans="29:29">
       <c r="AC233" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234" spans="29:29">
       <c r="AC234" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235" spans="29:29">
       <c r="AC235" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="236" spans="29:29">
       <c r="AC236" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="237" spans="29:29">
       <c r="AC237" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="29:29">
       <c r="AC238" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="29:29">
       <c r="AC239" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="240" spans="29:29">
       <c r="AC240" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="29:29">
       <c r="AC241" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="242" spans="29:29">
       <c r="AC242" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243" spans="29:29">
       <c r="AC243" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="244" spans="29:29">
       <c r="AC244" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="245" spans="29:29">
       <c r="AC245" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="246" spans="29:29">
       <c r="AC246" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="247" spans="29:29">
       <c r="AC247" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248" spans="29:29">
       <c r="AC248" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="249" spans="29:29">
       <c r="AC249" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="250" spans="29:29">
       <c r="AC250" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="251" spans="29:29">
       <c r="AC251" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="252" spans="29:29">
       <c r="AC252" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="29:29">
       <c r="AC253" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254" spans="29:29">
       <c r="AC254" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="255" spans="29:29">
       <c r="AC255" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256" spans="29:29">
       <c r="AC256" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="257" spans="29:29">
       <c r="AC257" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258" spans="29:29">
       <c r="AC258" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="259" spans="29:29">
       <c r="AC259" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="260" spans="29:29">
       <c r="AC260" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="261" spans="29:29">
       <c r="AC261" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="262" spans="29:29">
       <c r="AC262" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263" spans="29:29">
       <c r="AC263" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="264" spans="29:29">
       <c r="AC264" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="265" spans="29:29">
       <c r="AC265" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266" spans="29:29">
       <c r="AC266" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="29:29">
       <c r="AC267" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="268" spans="29:29">
       <c r="AC268" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="269" spans="29:29">
       <c r="AC269" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="270" spans="29:29">
       <c r="AC270" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271" spans="29:29">
       <c r="AC271" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="272" spans="29:29">
       <c r="AC272" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="273" spans="29:29">
       <c r="AC273" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="274" spans="29:29">
       <c r="AC274" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275" spans="29:29">
       <c r="AC275" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="276" spans="29:29">
       <c r="AC276" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="277" spans="29:29">
       <c r="AC277" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="278" spans="29:29">
       <c r="AC278" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="279" spans="29:29">
       <c r="AC279" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="280" spans="29:29">
       <c r="AC280" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="281" spans="29:29">
       <c r="AC281" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="282" spans="29:29">
       <c r="AC282" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="283" spans="29:29">
       <c r="AC283" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="284" spans="29:29">
       <c r="AC284" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="285" spans="29:29">
       <c r="AC285" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="286" spans="29:29">
       <c r="AC286" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="287" spans="29:29">
       <c r="AC287" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="288" spans="29:29">
       <c r="AC288" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -116,7 +116,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -134,7 +134,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AC$1:$AC$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="828">
   <si>
     <t>alias</t>
   </si>
@@ -1121,6 +1121,72 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1949,6 +2015,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1989,72 +2058,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -4125,271 +4128,271 @@
         <v>359</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>649</v>
+        <v>361</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>651</v>
+        <v>363</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>653</v>
+        <v>365</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>655</v>
+        <v>367</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>657</v>
+        <v>369</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>661</v>
+        <v>373</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
@@ -4478,271 +4481,271 @@
         <v>360</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>650</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>652</v>
+        <v>364</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>654</v>
+        <v>366</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>656</v>
+        <v>368</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>658</v>
+        <v>370</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>660</v>
+        <v>372</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +4765,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4772,13 +4775,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AC288"/>
+  <dimension ref="E1:AN289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:29">
+    <row r="1" spans="5:40">
       <c r="E1" t="s">
         <v>266</v>
       </c>
@@ -4794,11 +4797,11 @@
       <c r="W1" t="s">
         <v>346</v>
       </c>
-      <c r="AC1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="5:29">
+      <c r="AN1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2" spans="5:40">
       <c r="E2" t="s">
         <v>267</v>
       </c>
@@ -4814,11 +4817,11 @@
       <c r="W2" t="s">
         <v>347</v>
       </c>
-      <c r="AC2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="5:29">
+      <c r="AN2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="5:40">
       <c r="E3" t="s">
         <v>268</v>
       </c>
@@ -4831,11 +4834,11 @@
       <c r="W3" t="s">
         <v>348</v>
       </c>
-      <c r="AC3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="5:29">
+      <c r="AN3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="5:40">
       <c r="E4" t="s">
         <v>269</v>
       </c>
@@ -4845,11 +4848,11 @@
       <c r="H4" t="s">
         <v>310</v>
       </c>
-      <c r="AC4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="5" spans="5:29">
+      <c r="AN4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="5:40">
       <c r="E5" t="s">
         <v>270</v>
       </c>
@@ -4859,1504 +4862,1509 @@
       <c r="H5" t="s">
         <v>311</v>
       </c>
-      <c r="AC5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="5:29">
+      <c r="AN5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="5:40">
       <c r="E6" t="s">
         <v>271</v>
       </c>
       <c r="H6" t="s">
         <v>312</v>
       </c>
-      <c r="AC6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="5:29">
+      <c r="AN6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="5:40">
       <c r="E7" t="s">
         <v>272</v>
       </c>
       <c r="H7" t="s">
         <v>313</v>
       </c>
-      <c r="AC7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="5:29">
+      <c r="AN7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="5:40">
       <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="AC8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="5:29">
+      <c r="AN8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="5:40">
       <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="AC9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="5:29">
+      <c r="AN9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="5:40">
       <c r="E10" t="s">
         <v>275</v>
       </c>
-      <c r="AC10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="5:29">
+      <c r="AN10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="5:40">
       <c r="E11" t="s">
         <v>276</v>
       </c>
-      <c r="AC11" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="5:29">
+      <c r="AN11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="5:40">
       <c r="E12" t="s">
         <v>277</v>
       </c>
-      <c r="AC12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="13" spans="5:29">
+      <c r="AN12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="5:40">
       <c r="E13" t="s">
         <v>278</v>
       </c>
-      <c r="AC13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="14" spans="5:29">
+      <c r="AN13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14" spans="5:40">
       <c r="E14" t="s">
         <v>279</v>
       </c>
-      <c r="AC14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="5:29">
+      <c r="AN14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="5:40">
       <c r="E15" t="s">
         <v>280</v>
       </c>
-      <c r="AC15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="5:29">
+      <c r="AN15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="16" spans="5:40">
       <c r="E16" t="s">
         <v>281</v>
       </c>
-      <c r="AC16" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="17" spans="5:29">
+      <c r="AN16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="5:40">
       <c r="E17" t="s">
         <v>282</v>
       </c>
-      <c r="AC17" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="5:29">
+      <c r="AN17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="5:40">
       <c r="E18" t="s">
         <v>283</v>
       </c>
-      <c r="AC18" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="19" spans="5:29">
+      <c r="AN18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="5:40">
       <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="AC19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="20" spans="5:29">
+      <c r="AN19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="5:40">
       <c r="E20" t="s">
         <v>285</v>
       </c>
-      <c r="AC20" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="21" spans="5:29">
+      <c r="AN20" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="5:40">
       <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="AC21" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="22" spans="5:29">
+      <c r="AN21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="5:40">
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="AC22" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="5:29">
+      <c r="AN22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="5:40">
       <c r="E23" t="s">
         <v>288</v>
       </c>
-      <c r="AC23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="5:29">
+      <c r="AN23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="5:40">
       <c r="E24" t="s">
         <v>289</v>
       </c>
-      <c r="AC24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="25" spans="5:29">
+      <c r="AN24" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" spans="5:40">
       <c r="E25" t="s">
         <v>290</v>
       </c>
-      <c r="AC25" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="26" spans="5:29">
+      <c r="AN25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="5:40">
       <c r="E26" t="s">
         <v>291</v>
       </c>
-      <c r="AC26" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="5:29">
+      <c r="AN26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="5:40">
       <c r="E27" t="s">
         <v>292</v>
       </c>
-      <c r="AC27" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="5:29">
+      <c r="AN27" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="5:40">
       <c r="E28" t="s">
         <v>293</v>
       </c>
-      <c r="AC28" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="5:29">
+      <c r="AN28" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="5:40">
       <c r="E29" t="s">
         <v>294</v>
       </c>
-      <c r="AC29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="5:29">
+      <c r="AN29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="5:40">
       <c r="E30" t="s">
         <v>295</v>
       </c>
-      <c r="AC30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="5:29">
-      <c r="AC31" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="32" spans="5:29">
-      <c r="AC32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="33" spans="29:29">
-      <c r="AC33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="29:29">
-      <c r="AC34" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="35" spans="29:29">
-      <c r="AC35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="36" spans="29:29">
-      <c r="AC36" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="37" spans="29:29">
-      <c r="AC37" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="38" spans="29:29">
-      <c r="AC38" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="39" spans="29:29">
-      <c r="AC39" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="40" spans="29:29">
-      <c r="AC40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="41" spans="29:29">
-      <c r="AC41" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="29:29">
-      <c r="AC42" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="43" spans="29:29">
-      <c r="AC43" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="44" spans="29:29">
-      <c r="AC44" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="45" spans="29:29">
-      <c r="AC45" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="46" spans="29:29">
-      <c r="AC46" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="47" spans="29:29">
-      <c r="AC47" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="48" spans="29:29">
-      <c r="AC48" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="49" spans="29:29">
-      <c r="AC49" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="50" spans="29:29">
-      <c r="AC50" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="29:29">
-      <c r="AC51" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="52" spans="29:29">
-      <c r="AC52" t="s">
+      <c r="AN30" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="53" spans="29:29">
-      <c r="AC53" t="s">
+    <row r="31" spans="5:40">
+      <c r="AN31" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="54" spans="29:29">
-      <c r="AC54" t="s">
+    <row r="32" spans="5:40">
+      <c r="AN32" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="55" spans="29:29">
-      <c r="AC55" t="s">
+    <row r="33" spans="40:40">
+      <c r="AN33" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="29:29">
-      <c r="AC56" t="s">
+    <row r="34" spans="40:40">
+      <c r="AN34" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="57" spans="29:29">
-      <c r="AC57" t="s">
+    <row r="35" spans="40:40">
+      <c r="AN35" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="58" spans="29:29">
-      <c r="AC58" t="s">
+    <row r="36" spans="40:40">
+      <c r="AN36" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="59" spans="29:29">
-      <c r="AC59" t="s">
+    <row r="37" spans="40:40">
+      <c r="AN37" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="60" spans="29:29">
-      <c r="AC60" t="s">
+    <row r="38" spans="40:40">
+      <c r="AN38" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="61" spans="29:29">
-      <c r="AC61" t="s">
+    <row r="39" spans="40:40">
+      <c r="AN39" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="62" spans="29:29">
-      <c r="AC62" t="s">
+    <row r="40" spans="40:40">
+      <c r="AN40" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="63" spans="29:29">
-      <c r="AC63" t="s">
+    <row r="41" spans="40:40">
+      <c r="AN41" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="64" spans="29:29">
-      <c r="AC64" t="s">
+    <row r="42" spans="40:40">
+      <c r="AN42" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="65" spans="29:29">
-      <c r="AC65" t="s">
+    <row r="43" spans="40:40">
+      <c r="AN43" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="66" spans="29:29">
-      <c r="AC66" t="s">
+    <row r="44" spans="40:40">
+      <c r="AN44" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="29:29">
-      <c r="AC67" t="s">
+    <row r="45" spans="40:40">
+      <c r="AN45" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="29:29">
-      <c r="AC68" t="s">
+    <row r="46" spans="40:40">
+      <c r="AN46" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="69" spans="29:29">
-      <c r="AC69" t="s">
+    <row r="47" spans="40:40">
+      <c r="AN47" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="70" spans="29:29">
-      <c r="AC70" t="s">
+    <row r="48" spans="40:40">
+      <c r="AN48" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="71" spans="29:29">
-      <c r="AC71" t="s">
+    <row r="49" spans="40:40">
+      <c r="AN49" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="72" spans="29:29">
-      <c r="AC72" t="s">
+    <row r="50" spans="40:40">
+      <c r="AN50" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="29:29">
-      <c r="AC73" t="s">
+    <row r="51" spans="40:40">
+      <c r="AN51" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="74" spans="29:29">
-      <c r="AC74" t="s">
+    <row r="52" spans="40:40">
+      <c r="AN52" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="29:29">
-      <c r="AC75" t="s">
+    <row r="53" spans="40:40">
+      <c r="AN53" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="76" spans="29:29">
-      <c r="AC76" t="s">
+    <row r="54" spans="40:40">
+      <c r="AN54" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="77" spans="29:29">
-      <c r="AC77" t="s">
+    <row r="55" spans="40:40">
+      <c r="AN55" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="78" spans="29:29">
-      <c r="AC78" t="s">
+    <row r="56" spans="40:40">
+      <c r="AN56" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="29:29">
-      <c r="AC79" t="s">
+    <row r="57" spans="40:40">
+      <c r="AN57" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="80" spans="29:29">
-      <c r="AC80" t="s">
+    <row r="58" spans="40:40">
+      <c r="AN58" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="81" spans="29:29">
-      <c r="AC81" t="s">
+    <row r="59" spans="40:40">
+      <c r="AN59" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="82" spans="29:29">
-      <c r="AC82" t="s">
+    <row r="60" spans="40:40">
+      <c r="AN60" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="83" spans="29:29">
-      <c r="AC83" t="s">
+    <row r="61" spans="40:40">
+      <c r="AN61" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="84" spans="29:29">
-      <c r="AC84" t="s">
+    <row r="62" spans="40:40">
+      <c r="AN62" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="29:29">
-      <c r="AC85" t="s">
+    <row r="63" spans="40:40">
+      <c r="AN63" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="29:29">
-      <c r="AC86" t="s">
+    <row r="64" spans="40:40">
+      <c r="AN64" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="87" spans="29:29">
-      <c r="AC87" t="s">
+    <row r="65" spans="40:40">
+      <c r="AN65" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="88" spans="29:29">
-      <c r="AC88" t="s">
+    <row r="66" spans="40:40">
+      <c r="AN66" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="89" spans="29:29">
-      <c r="AC89" t="s">
+    <row r="67" spans="40:40">
+      <c r="AN67" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="90" spans="29:29">
-      <c r="AC90" t="s">
+    <row r="68" spans="40:40">
+      <c r="AN68" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="29:29">
-      <c r="AC91" t="s">
+    <row r="69" spans="40:40">
+      <c r="AN69" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="92" spans="29:29">
-      <c r="AC92" t="s">
+    <row r="70" spans="40:40">
+      <c r="AN70" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="93" spans="29:29">
-      <c r="AC93" t="s">
+    <row r="71" spans="40:40">
+      <c r="AN71" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="94" spans="29:29">
-      <c r="AC94" t="s">
+    <row r="72" spans="40:40">
+      <c r="AN72" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="95" spans="29:29">
-      <c r="AC95" t="s">
+    <row r="73" spans="40:40">
+      <c r="AN73" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="96" spans="29:29">
-      <c r="AC96" t="s">
+    <row r="74" spans="40:40">
+      <c r="AN74" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="29:29">
-      <c r="AC97" t="s">
+    <row r="75" spans="40:40">
+      <c r="AN75" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="98" spans="29:29">
-      <c r="AC98" t="s">
+    <row r="76" spans="40:40">
+      <c r="AN76" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="99" spans="29:29">
-      <c r="AC99" t="s">
+    <row r="77" spans="40:40">
+      <c r="AN77" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="100" spans="29:29">
-      <c r="AC100" t="s">
+    <row r="78" spans="40:40">
+      <c r="AN78" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="29:29">
-      <c r="AC101" t="s">
+    <row r="79" spans="40:40">
+      <c r="AN79" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="102" spans="29:29">
-      <c r="AC102" t="s">
+    <row r="80" spans="40:40">
+      <c r="AN80" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="103" spans="29:29">
-      <c r="AC103" t="s">
+    <row r="81" spans="40:40">
+      <c r="AN81" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="104" spans="29:29">
-      <c r="AC104" t="s">
+    <row r="82" spans="40:40">
+      <c r="AN82" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="105" spans="29:29">
-      <c r="AC105" t="s">
+    <row r="83" spans="40:40">
+      <c r="AN83" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="106" spans="29:29">
-      <c r="AC106" t="s">
+    <row r="84" spans="40:40">
+      <c r="AN84" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="107" spans="29:29">
-      <c r="AC107" t="s">
+    <row r="85" spans="40:40">
+      <c r="AN85" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="108" spans="29:29">
-      <c r="AC108" t="s">
+    <row r="86" spans="40:40">
+      <c r="AN86" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="109" spans="29:29">
-      <c r="AC109" t="s">
+    <row r="87" spans="40:40">
+      <c r="AN87" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="110" spans="29:29">
-      <c r="AC110" t="s">
+    <row r="88" spans="40:40">
+      <c r="AN88" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="111" spans="29:29">
-      <c r="AC111" t="s">
+    <row r="89" spans="40:40">
+      <c r="AN89" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="112" spans="29:29">
-      <c r="AC112" t="s">
+    <row r="90" spans="40:40">
+      <c r="AN90" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="113" spans="29:29">
-      <c r="AC113" t="s">
+    <row r="91" spans="40:40">
+      <c r="AN91" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="114" spans="29:29">
-      <c r="AC114" t="s">
+    <row r="92" spans="40:40">
+      <c r="AN92" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="115" spans="29:29">
-      <c r="AC115" t="s">
+    <row r="93" spans="40:40">
+      <c r="AN93" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="116" spans="29:29">
-      <c r="AC116" t="s">
+    <row r="94" spans="40:40">
+      <c r="AN94" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="117" spans="29:29">
-      <c r="AC117" t="s">
+    <row r="95" spans="40:40">
+      <c r="AN95" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="118" spans="29:29">
-      <c r="AC118" t="s">
+    <row r="96" spans="40:40">
+      <c r="AN96" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="29:29">
-      <c r="AC119" t="s">
+    <row r="97" spans="40:40">
+      <c r="AN97" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="120" spans="29:29">
-      <c r="AC120" t="s">
+    <row r="98" spans="40:40">
+      <c r="AN98" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="121" spans="29:29">
-      <c r="AC121" t="s">
+    <row r="99" spans="40:40">
+      <c r="AN99" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="122" spans="29:29">
-      <c r="AC122" t="s">
+    <row r="100" spans="40:40">
+      <c r="AN100" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="29:29">
-      <c r="AC123" t="s">
+    <row r="101" spans="40:40">
+      <c r="AN101" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="124" spans="29:29">
-      <c r="AC124" t="s">
+    <row r="102" spans="40:40">
+      <c r="AN102" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="125" spans="29:29">
-      <c r="AC125" t="s">
+    <row r="103" spans="40:40">
+      <c r="AN103" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="126" spans="29:29">
-      <c r="AC126" t="s">
+    <row r="104" spans="40:40">
+      <c r="AN104" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="29:29">
-      <c r="AC127" t="s">
+    <row r="105" spans="40:40">
+      <c r="AN105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="29:29">
-      <c r="AC128" t="s">
+    <row r="106" spans="40:40">
+      <c r="AN106" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="129" spans="29:29">
-      <c r="AC129" t="s">
+    <row r="107" spans="40:40">
+      <c r="AN107" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="29:29">
-      <c r="AC130" t="s">
+    <row r="108" spans="40:40">
+      <c r="AN108" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="131" spans="29:29">
-      <c r="AC131" t="s">
+    <row r="109" spans="40:40">
+      <c r="AN109" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="29:29">
-      <c r="AC132" t="s">
+    <row r="110" spans="40:40">
+      <c r="AN110" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="133" spans="29:29">
-      <c r="AC133" t="s">
+    <row r="111" spans="40:40">
+      <c r="AN111" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="134" spans="29:29">
-      <c r="AC134" t="s">
+    <row r="112" spans="40:40">
+      <c r="AN112" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="29:29">
-      <c r="AC135" t="s">
+    <row r="113" spans="40:40">
+      <c r="AN113" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="136" spans="29:29">
-      <c r="AC136" t="s">
+    <row r="114" spans="40:40">
+      <c r="AN114" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="137" spans="29:29">
-      <c r="AC137" t="s">
+    <row r="115" spans="40:40">
+      <c r="AN115" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="138" spans="29:29">
-      <c r="AC138" t="s">
+    <row r="116" spans="40:40">
+      <c r="AN116" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="139" spans="29:29">
-      <c r="AC139" t="s">
+    <row r="117" spans="40:40">
+      <c r="AN117" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="140" spans="29:29">
-      <c r="AC140" t="s">
+    <row r="118" spans="40:40">
+      <c r="AN118" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="29:29">
-      <c r="AC141" t="s">
+    <row r="119" spans="40:40">
+      <c r="AN119" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="142" spans="29:29">
-      <c r="AC142" t="s">
+    <row r="120" spans="40:40">
+      <c r="AN120" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="143" spans="29:29">
-      <c r="AC143" t="s">
+    <row r="121" spans="40:40">
+      <c r="AN121" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="144" spans="29:29">
-      <c r="AC144" t="s">
+    <row r="122" spans="40:40">
+      <c r="AN122" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="145" spans="29:29">
-      <c r="AC145" t="s">
+    <row r="123" spans="40:40">
+      <c r="AN123" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="146" spans="29:29">
-      <c r="AC146" t="s">
+    <row r="124" spans="40:40">
+      <c r="AN124" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="147" spans="29:29">
-      <c r="AC147" t="s">
+    <row r="125" spans="40:40">
+      <c r="AN125" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="148" spans="29:29">
-      <c r="AC148" t="s">
+    <row r="126" spans="40:40">
+      <c r="AN126" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="149" spans="29:29">
-      <c r="AC149" t="s">
+    <row r="127" spans="40:40">
+      <c r="AN127" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="150" spans="29:29">
-      <c r="AC150" t="s">
+    <row r="128" spans="40:40">
+      <c r="AN128" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="151" spans="29:29">
-      <c r="AC151" t="s">
+    <row r="129" spans="40:40">
+      <c r="AN129" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="152" spans="29:29">
-      <c r="AC152" t="s">
+    <row r="130" spans="40:40">
+      <c r="AN130" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="153" spans="29:29">
-      <c r="AC153" t="s">
+    <row r="131" spans="40:40">
+      <c r="AN131" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="154" spans="29:29">
-      <c r="AC154" t="s">
+    <row r="132" spans="40:40">
+      <c r="AN132" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="155" spans="29:29">
-      <c r="AC155" t="s">
+    <row r="133" spans="40:40">
+      <c r="AN133" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="156" spans="29:29">
-      <c r="AC156" t="s">
+    <row r="134" spans="40:40">
+      <c r="AN134" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="157" spans="29:29">
-      <c r="AC157" t="s">
+    <row r="135" spans="40:40">
+      <c r="AN135" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="158" spans="29:29">
-      <c r="AC158" t="s">
+    <row r="136" spans="40:40">
+      <c r="AN136" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="159" spans="29:29">
-      <c r="AC159" t="s">
+    <row r="137" spans="40:40">
+      <c r="AN137" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="160" spans="29:29">
-      <c r="AC160" t="s">
+    <row r="138" spans="40:40">
+      <c r="AN138" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="161" spans="29:29">
-      <c r="AC161" t="s">
+    <row r="139" spans="40:40">
+      <c r="AN139" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="162" spans="29:29">
-      <c r="AC162" t="s">
+    <row r="140" spans="40:40">
+      <c r="AN140" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="163" spans="29:29">
-      <c r="AC163" t="s">
+    <row r="141" spans="40:40">
+      <c r="AN141" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="164" spans="29:29">
-      <c r="AC164" t="s">
+    <row r="142" spans="40:40">
+      <c r="AN142" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="165" spans="29:29">
-      <c r="AC165" t="s">
+    <row r="143" spans="40:40">
+      <c r="AN143" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="166" spans="29:29">
-      <c r="AC166" t="s">
+    <row r="144" spans="40:40">
+      <c r="AN144" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="167" spans="29:29">
-      <c r="AC167" t="s">
+    <row r="145" spans="40:40">
+      <c r="AN145" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="168" spans="29:29">
-      <c r="AC168" t="s">
+    <row r="146" spans="40:40">
+      <c r="AN146" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="169" spans="29:29">
-      <c r="AC169" t="s">
+    <row r="147" spans="40:40">
+      <c r="AN147" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="170" spans="29:29">
-      <c r="AC170" t="s">
+    <row r="148" spans="40:40">
+      <c r="AN148" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="171" spans="29:29">
-      <c r="AC171" t="s">
+    <row r="149" spans="40:40">
+      <c r="AN149" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="172" spans="29:29">
-      <c r="AC172" t="s">
+    <row r="150" spans="40:40">
+      <c r="AN150" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="173" spans="29:29">
-      <c r="AC173" t="s">
+    <row r="151" spans="40:40">
+      <c r="AN151" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="174" spans="29:29">
-      <c r="AC174" t="s">
+    <row r="152" spans="40:40">
+      <c r="AN152" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="175" spans="29:29">
-      <c r="AC175" t="s">
+    <row r="153" spans="40:40">
+      <c r="AN153" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="176" spans="29:29">
-      <c r="AC176" t="s">
+    <row r="154" spans="40:40">
+      <c r="AN154" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="177" spans="29:29">
-      <c r="AC177" t="s">
+    <row r="155" spans="40:40">
+      <c r="AN155" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="178" spans="29:29">
-      <c r="AC178" t="s">
+    <row r="156" spans="40:40">
+      <c r="AN156" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="179" spans="29:29">
-      <c r="AC179" t="s">
+    <row r="157" spans="40:40">
+      <c r="AN157" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="180" spans="29:29">
-      <c r="AC180" t="s">
+    <row r="158" spans="40:40">
+      <c r="AN158" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="181" spans="29:29">
-      <c r="AC181" t="s">
+    <row r="159" spans="40:40">
+      <c r="AN159" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="182" spans="29:29">
-      <c r="AC182" t="s">
+    <row r="160" spans="40:40">
+      <c r="AN160" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="183" spans="29:29">
-      <c r="AC183" t="s">
+    <row r="161" spans="40:40">
+      <c r="AN161" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="184" spans="29:29">
-      <c r="AC184" t="s">
+    <row r="162" spans="40:40">
+      <c r="AN162" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="185" spans="29:29">
-      <c r="AC185" t="s">
+    <row r="163" spans="40:40">
+      <c r="AN163" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="186" spans="29:29">
-      <c r="AC186" t="s">
+    <row r="164" spans="40:40">
+      <c r="AN164" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="187" spans="29:29">
-      <c r="AC187" t="s">
+    <row r="165" spans="40:40">
+      <c r="AN165" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="188" spans="29:29">
-      <c r="AC188" t="s">
+    <row r="166" spans="40:40">
+      <c r="AN166" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="189" spans="29:29">
-      <c r="AC189" t="s">
+    <row r="167" spans="40:40">
+      <c r="AN167" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="190" spans="29:29">
-      <c r="AC190" t="s">
+    <row r="168" spans="40:40">
+      <c r="AN168" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="191" spans="29:29">
-      <c r="AC191" t="s">
+    <row r="169" spans="40:40">
+      <c r="AN169" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="192" spans="29:29">
-      <c r="AC192" t="s">
+    <row r="170" spans="40:40">
+      <c r="AN170" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="193" spans="29:29">
-      <c r="AC193" t="s">
+    <row r="171" spans="40:40">
+      <c r="AN171" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="194" spans="29:29">
-      <c r="AC194" t="s">
+    <row r="172" spans="40:40">
+      <c r="AN172" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="195" spans="29:29">
-      <c r="AC195" t="s">
+    <row r="173" spans="40:40">
+      <c r="AN173" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="196" spans="29:29">
-      <c r="AC196" t="s">
+    <row r="174" spans="40:40">
+      <c r="AN174" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="197" spans="29:29">
-      <c r="AC197" t="s">
+    <row r="175" spans="40:40">
+      <c r="AN175" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="198" spans="29:29">
-      <c r="AC198" t="s">
+    <row r="176" spans="40:40">
+      <c r="AN176" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="199" spans="29:29">
-      <c r="AC199" t="s">
+    <row r="177" spans="40:40">
+      <c r="AN177" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="200" spans="29:29">
-      <c r="AC200" t="s">
+    <row r="178" spans="40:40">
+      <c r="AN178" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="201" spans="29:29">
-      <c r="AC201" t="s">
+    <row r="179" spans="40:40">
+      <c r="AN179" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="202" spans="29:29">
-      <c r="AC202" t="s">
+    <row r="180" spans="40:40">
+      <c r="AN180" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="203" spans="29:29">
-      <c r="AC203" t="s">
+    <row r="181" spans="40:40">
+      <c r="AN181" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="204" spans="29:29">
-      <c r="AC204" t="s">
+    <row r="182" spans="40:40">
+      <c r="AN182" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="205" spans="29:29">
-      <c r="AC205" t="s">
+    <row r="183" spans="40:40">
+      <c r="AN183" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="206" spans="29:29">
-      <c r="AC206" t="s">
+    <row r="184" spans="40:40">
+      <c r="AN184" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="207" spans="29:29">
-      <c r="AC207" t="s">
+    <row r="185" spans="40:40">
+      <c r="AN185" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="208" spans="29:29">
-      <c r="AC208" t="s">
+    <row r="186" spans="40:40">
+      <c r="AN186" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="209" spans="29:29">
-      <c r="AC209" t="s">
+    <row r="187" spans="40:40">
+      <c r="AN187" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="210" spans="29:29">
-      <c r="AC210" t="s">
+    <row r="188" spans="40:40">
+      <c r="AN188" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="211" spans="29:29">
-      <c r="AC211" t="s">
+    <row r="189" spans="40:40">
+      <c r="AN189" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="212" spans="29:29">
-      <c r="AC212" t="s">
+    <row r="190" spans="40:40">
+      <c r="AN190" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="213" spans="29:29">
-      <c r="AC213" t="s">
+    <row r="191" spans="40:40">
+      <c r="AN191" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="214" spans="29:29">
-      <c r="AC214" t="s">
+    <row r="192" spans="40:40">
+      <c r="AN192" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="215" spans="29:29">
-      <c r="AC215" t="s">
+    <row r="193" spans="40:40">
+      <c r="AN193" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="216" spans="29:29">
-      <c r="AC216" t="s">
+    <row r="194" spans="40:40">
+      <c r="AN194" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="217" spans="29:29">
-      <c r="AC217" t="s">
+    <row r="195" spans="40:40">
+      <c r="AN195" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="218" spans="29:29">
-      <c r="AC218" t="s">
+    <row r="196" spans="40:40">
+      <c r="AN196" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="219" spans="29:29">
-      <c r="AC219" t="s">
+    <row r="197" spans="40:40">
+      <c r="AN197" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="220" spans="29:29">
-      <c r="AC220" t="s">
+    <row r="198" spans="40:40">
+      <c r="AN198" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="221" spans="29:29">
-      <c r="AC221" t="s">
+    <row r="199" spans="40:40">
+      <c r="AN199" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="222" spans="29:29">
-      <c r="AC222" t="s">
+    <row r="200" spans="40:40">
+      <c r="AN200" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="223" spans="29:29">
-      <c r="AC223" t="s">
+    <row r="201" spans="40:40">
+      <c r="AN201" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="224" spans="29:29">
-      <c r="AC224" t="s">
+    <row r="202" spans="40:40">
+      <c r="AN202" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="225" spans="29:29">
-      <c r="AC225" t="s">
+    <row r="203" spans="40:40">
+      <c r="AN203" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="226" spans="29:29">
-      <c r="AC226" t="s">
+    <row r="204" spans="40:40">
+      <c r="AN204" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="227" spans="29:29">
-      <c r="AC227" t="s">
+    <row r="205" spans="40:40">
+      <c r="AN205" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="228" spans="29:29">
-      <c r="AC228" t="s">
+    <row r="206" spans="40:40">
+      <c r="AN206" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="229" spans="29:29">
-      <c r="AC229" t="s">
+    <row r="207" spans="40:40">
+      <c r="AN207" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="230" spans="29:29">
-      <c r="AC230" t="s">
+    <row r="208" spans="40:40">
+      <c r="AN208" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="231" spans="29:29">
-      <c r="AC231" t="s">
+    <row r="209" spans="40:40">
+      <c r="AN209" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="232" spans="29:29">
-      <c r="AC232" t="s">
+    <row r="210" spans="40:40">
+      <c r="AN210" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="233" spans="29:29">
-      <c r="AC233" t="s">
+    <row r="211" spans="40:40">
+      <c r="AN211" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="234" spans="29:29">
-      <c r="AC234" t="s">
+    <row r="212" spans="40:40">
+      <c r="AN212" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="235" spans="29:29">
-      <c r="AC235" t="s">
+    <row r="213" spans="40:40">
+      <c r="AN213" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="236" spans="29:29">
-      <c r="AC236" t="s">
+    <row r="214" spans="40:40">
+      <c r="AN214" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="237" spans="29:29">
-      <c r="AC237" t="s">
+    <row r="215" spans="40:40">
+      <c r="AN215" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="238" spans="29:29">
-      <c r="AC238" t="s">
+    <row r="216" spans="40:40">
+      <c r="AN216" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="239" spans="29:29">
-      <c r="AC239" t="s">
+    <row r="217" spans="40:40">
+      <c r="AN217" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="240" spans="29:29">
-      <c r="AC240" t="s">
+    <row r="218" spans="40:40">
+      <c r="AN218" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="241" spans="29:29">
-      <c r="AC241" t="s">
+    <row r="219" spans="40:40">
+      <c r="AN219" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="242" spans="29:29">
-      <c r="AC242" t="s">
+    <row r="220" spans="40:40">
+      <c r="AN220" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="243" spans="29:29">
-      <c r="AC243" t="s">
+    <row r="221" spans="40:40">
+      <c r="AN221" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="244" spans="29:29">
-      <c r="AC244" t="s">
+    <row r="222" spans="40:40">
+      <c r="AN222" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="245" spans="29:29">
-      <c r="AC245" t="s">
+    <row r="223" spans="40:40">
+      <c r="AN223" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="246" spans="29:29">
-      <c r="AC246" t="s">
+    <row r="224" spans="40:40">
+      <c r="AN224" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="247" spans="29:29">
-      <c r="AC247" t="s">
+    <row r="225" spans="40:40">
+      <c r="AN225" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="248" spans="29:29">
-      <c r="AC248" t="s">
+    <row r="226" spans="40:40">
+      <c r="AN226" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="249" spans="29:29">
-      <c r="AC249" t="s">
+    <row r="227" spans="40:40">
+      <c r="AN227" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="250" spans="29:29">
-      <c r="AC250" t="s">
+    <row r="228" spans="40:40">
+      <c r="AN228" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="251" spans="29:29">
-      <c r="AC251" t="s">
+    <row r="229" spans="40:40">
+      <c r="AN229" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="252" spans="29:29">
-      <c r="AC252" t="s">
+    <row r="230" spans="40:40">
+      <c r="AN230" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="253" spans="29:29">
-      <c r="AC253" t="s">
+    <row r="231" spans="40:40">
+      <c r="AN231" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="254" spans="29:29">
-      <c r="AC254" t="s">
+    <row r="232" spans="40:40">
+      <c r="AN232" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="255" spans="29:29">
-      <c r="AC255" t="s">
+    <row r="233" spans="40:40">
+      <c r="AN233" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="256" spans="29:29">
-      <c r="AC256" t="s">
+    <row r="234" spans="40:40">
+      <c r="AN234" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="257" spans="29:29">
-      <c r="AC257" t="s">
+    <row r="235" spans="40:40">
+      <c r="AN235" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="258" spans="29:29">
-      <c r="AC258" t="s">
+    <row r="236" spans="40:40">
+      <c r="AN236" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="259" spans="29:29">
-      <c r="AC259" t="s">
+    <row r="237" spans="40:40">
+      <c r="AN237" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="260" spans="29:29">
-      <c r="AC260" t="s">
+    <row r="238" spans="40:40">
+      <c r="AN238" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="261" spans="29:29">
-      <c r="AC261" t="s">
+    <row r="239" spans="40:40">
+      <c r="AN239" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="262" spans="29:29">
-      <c r="AC262" t="s">
+    <row r="240" spans="40:40">
+      <c r="AN240" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="263" spans="29:29">
-      <c r="AC263" t="s">
+    <row r="241" spans="40:40">
+      <c r="AN241" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="264" spans="29:29">
-      <c r="AC264" t="s">
+    <row r="242" spans="40:40">
+      <c r="AN242" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="265" spans="29:29">
-      <c r="AC265" t="s">
+    <row r="243" spans="40:40">
+      <c r="AN243" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="266" spans="29:29">
-      <c r="AC266" t="s">
+    <row r="244" spans="40:40">
+      <c r="AN244" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="267" spans="29:29">
-      <c r="AC267" t="s">
+    <row r="245" spans="40:40">
+      <c r="AN245" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="268" spans="29:29">
-      <c r="AC268" t="s">
+    <row r="246" spans="40:40">
+      <c r="AN246" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="269" spans="29:29">
-      <c r="AC269" t="s">
+    <row r="247" spans="40:40">
+      <c r="AN247" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="270" spans="29:29">
-      <c r="AC270" t="s">
+    <row r="248" spans="40:40">
+      <c r="AN248" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="271" spans="29:29">
-      <c r="AC271" t="s">
+    <row r="249" spans="40:40">
+      <c r="AN249" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="272" spans="29:29">
-      <c r="AC272" t="s">
+    <row r="250" spans="40:40">
+      <c r="AN250" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="273" spans="29:29">
-      <c r="AC273" t="s">
+    <row r="251" spans="40:40">
+      <c r="AN251" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="274" spans="29:29">
-      <c r="AC274" t="s">
+    <row r="252" spans="40:40">
+      <c r="AN252" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="275" spans="29:29">
-      <c r="AC275" t="s">
+    <row r="253" spans="40:40">
+      <c r="AN253" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="276" spans="29:29">
-      <c r="AC276" t="s">
+    <row r="254" spans="40:40">
+      <c r="AN254" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="277" spans="29:29">
-      <c r="AC277" t="s">
+    <row r="255" spans="40:40">
+      <c r="AN255" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="278" spans="29:29">
-      <c r="AC278" t="s">
+    <row r="256" spans="40:40">
+      <c r="AN256" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="279" spans="29:29">
-      <c r="AC279" t="s">
+    <row r="257" spans="40:40">
+      <c r="AN257" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="280" spans="29:29">
-      <c r="AC280" t="s">
+    <row r="258" spans="40:40">
+      <c r="AN258" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="281" spans="29:29">
-      <c r="AC281" t="s">
+    <row r="259" spans="40:40">
+      <c r="AN259" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="282" spans="29:29">
-      <c r="AC282" t="s">
+    <row r="260" spans="40:40">
+      <c r="AN260" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="283" spans="29:29">
-      <c r="AC283" t="s">
+    <row r="261" spans="40:40">
+      <c r="AN261" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="284" spans="29:29">
-      <c r="AC284" t="s">
+    <row r="262" spans="40:40">
+      <c r="AN262" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="285" spans="29:29">
-      <c r="AC285" t="s">
+    <row r="263" spans="40:40">
+      <c r="AN263" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="286" spans="29:29">
-      <c r="AC286" t="s">
+    <row r="264" spans="40:40">
+      <c r="AN264" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="287" spans="29:29">
-      <c r="AC287" t="s">
+    <row r="265" spans="40:40">
+      <c r="AN265" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="288" spans="29:29">
-      <c r="AC288" t="s">
+    <row r="266" spans="40:40">
+      <c r="AN266" t="s">
         <v>648</v>
+      </c>
+    </row>
+    <row r="267" spans="40:40">
+      <c r="AN267" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="268" spans="40:40">
+      <c r="AN268" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="269" spans="40:40">
+      <c r="AN269" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="270" spans="40:40">
+      <c r="AN270" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="271" spans="40:40">
+      <c r="AN271" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="272" spans="40:40">
+      <c r="AN272" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="273" spans="40:40">
+      <c r="AN273" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="274" spans="40:40">
+      <c r="AN274" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="275" spans="40:40">
+      <c r="AN275" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="276" spans="40:40">
+      <c r="AN276" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="277" spans="40:40">
+      <c r="AN277" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="278" spans="40:40">
+      <c r="AN278" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="279" spans="40:40">
+      <c r="AN279" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="280" spans="40:40">
+      <c r="AN280" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="281" spans="40:40">
+      <c r="AN281" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="282" spans="40:40">
+      <c r="AN282" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="283" spans="40:40">
+      <c r="AN283" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="284" spans="40:40">
+      <c r="AN284" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="285" spans="40:40">
+      <c r="AN285" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="286" spans="40:40">
+      <c r="AN286" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="287" spans="40:40">
+      <c r="AN287" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="288" spans="40:40">
+      <c r="AN288" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="289" spans="40:40">
+      <c r="AN289" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="829">
   <si>
     <t>alias</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3058,7 +3061,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3102,7 +3105,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3129,7 +3132,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3841,6 +3844,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3865,27 +3873,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3908,122 +3916,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4050,702 +4058,702 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -4783,1588 +4791,1588 @@
   <sheetData>
     <row r="1" spans="5:40">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="5:40">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="5:40">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="5:40">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="5:40">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="5:40">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="5:40">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="5:40">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="5:40">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="5:40">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="5:40">
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="5:40">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="5:40">
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="5:40">
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="5:40">
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="5:40">
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="5:40">
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="5:40">
       <c r="E18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="5:40">
       <c r="E19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="5:40">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="5:40">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="5:40">
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN22" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="5:40">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="5:40">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN24" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="5:40">
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="5:40">
       <c r="E26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="5:40">
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="5:40">
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="5:40">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN29" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="5:40">
       <c r="E30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="5:40">
       <c r="AN31" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" spans="5:40">
       <c r="AN32" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="33" spans="40:40">
       <c r="AN33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="40:40">
       <c r="AN34" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="40:40">
       <c r="AN35" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="40:40">
       <c r="AN36" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="40:40">
       <c r="AN37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="40:40">
       <c r="AN38" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="39" spans="40:40">
       <c r="AN39" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="AN40" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="40:40">
       <c r="AN41" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="40:40">
       <c r="AN42" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="40:40">
       <c r="AN43" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="40:40">
       <c r="AN44" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="40:40">
       <c r="AN45" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="40:40">
       <c r="AN46" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="40:40">
       <c r="AN47" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="40:40">
       <c r="AN48" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="40:40">
       <c r="AN49" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="40:40">
       <c r="AN50" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="40:40">
       <c r="AN51" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="40:40">
       <c r="AN52" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="40:40">
       <c r="AN53" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="40:40">
       <c r="AN54" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="40:40">
       <c r="AN55" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56" spans="40:40">
       <c r="AN56" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="40:40">
       <c r="AN57" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="40:40">
       <c r="AN58" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="40:40">
       <c r="AN60" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="40:40">
       <c r="AN61" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63" spans="40:40">
       <c r="AN63" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="40:40">
       <c r="AN64" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="40:40">
       <c r="AN65" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="40:40">
       <c r="AN66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="40:40">
       <c r="AN67" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="40:40">
       <c r="AN68" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="40:40">
       <c r="AN69" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="40:40">
       <c r="AN70" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="40:40">
       <c r="AN71" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="40:40">
       <c r="AN72" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="40:40">
       <c r="AN73" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="40:40">
       <c r="AN74" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" spans="40:40">
       <c r="AN75" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="40:40">
       <c r="AN76" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="40:40">
       <c r="AN77" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="78" spans="40:40">
       <c r="AN78" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="40:40">
       <c r="AN79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" spans="40:40">
       <c r="AN80" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="81" spans="40:40">
       <c r="AN81" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="40:40">
       <c r="AN82" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="40:40">
       <c r="AN83" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" spans="40:40">
       <c r="AN84" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="40:40">
       <c r="AN85" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="40:40">
       <c r="AN86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="88" spans="40:40">
       <c r="AN88" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="40:40">
       <c r="AN89" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="90" spans="40:40">
       <c r="AN90" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="40:40">
       <c r="AN91" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="40:40">
       <c r="AN92" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="40:40">
       <c r="AN93" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="40:40">
       <c r="AN94" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="40:40">
       <c r="AN95" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96" spans="40:40">
       <c r="AN96" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="40:40">
       <c r="AN97" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="40:40">
       <c r="AN98" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="40:40">
       <c r="AN99" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" spans="40:40">
       <c r="AN100" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="40:40">
       <c r="AN101" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="102" spans="40:40">
       <c r="AN102" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="103" spans="40:40">
       <c r="AN103" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" spans="40:40">
       <c r="AN104" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="40:40">
       <c r="AN105" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="40:40">
       <c r="AN106" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107" spans="40:40">
       <c r="AN107" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="108" spans="40:40">
       <c r="AN108" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" spans="40:40">
       <c r="AN109" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="40:40">
       <c r="AN110" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="40:40">
       <c r="AN111" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112" spans="40:40">
       <c r="AN112" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113" spans="40:40">
       <c r="AN113" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="40:40">
       <c r="AN114" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="40:40">
       <c r="AN115" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116" spans="40:40">
       <c r="AN116" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="40:40">
       <c r="AN117" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="40:40">
       <c r="AN118" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="119" spans="40:40">
       <c r="AN119" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="40:40">
       <c r="AN120" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="121" spans="40:40">
       <c r="AN121" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="122" spans="40:40">
       <c r="AN122" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="123" spans="40:40">
       <c r="AN123" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="124" spans="40:40">
       <c r="AN124" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="125" spans="40:40">
       <c r="AN125" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="126" spans="40:40">
       <c r="AN126" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="40:40">
       <c r="AN127" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="128" spans="40:40">
       <c r="AN128" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="129" spans="40:40">
       <c r="AN129" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="130" spans="40:40">
       <c r="AN130" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="131" spans="40:40">
       <c r="AN131" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="132" spans="40:40">
       <c r="AN132" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="133" spans="40:40">
       <c r="AN133" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="40:40">
       <c r="AN134" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135" spans="40:40">
       <c r="AN135" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136" spans="40:40">
       <c r="AN136" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="137" spans="40:40">
       <c r="AN137" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="138" spans="40:40">
       <c r="AN138" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" spans="40:40">
       <c r="AN139" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="40:40">
       <c r="AN140" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="141" spans="40:40">
       <c r="AN141" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="40:40">
       <c r="AN142" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="40:40">
       <c r="AN143" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="144" spans="40:40">
       <c r="AN144" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="40:40">
       <c r="AN145" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="40:40">
       <c r="AN146" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="147" spans="40:40">
       <c r="AN147" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="40:40">
       <c r="AN148" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="40:40">
       <c r="AN149" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="40:40">
       <c r="AN150" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="151" spans="40:40">
       <c r="AN151" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="152" spans="40:40">
       <c r="AN152" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="153" spans="40:40">
       <c r="AN153" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="154" spans="40:40">
       <c r="AN154" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="155" spans="40:40">
       <c r="AN155" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="156" spans="40:40">
       <c r="AN156" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="157" spans="40:40">
       <c r="AN157" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="158" spans="40:40">
       <c r="AN158" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="159" spans="40:40">
       <c r="AN159" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="40:40">
       <c r="AN160" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="40:40">
       <c r="AN161" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="162" spans="40:40">
       <c r="AN162" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="163" spans="40:40">
       <c r="AN163" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="164" spans="40:40">
       <c r="AN164" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="165" spans="40:40">
       <c r="AN165" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="166" spans="40:40">
       <c r="AN166" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="167" spans="40:40">
       <c r="AN167" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="168" spans="40:40">
       <c r="AN168" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="169" spans="40:40">
       <c r="AN169" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" spans="40:40">
       <c r="AN170" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="171" spans="40:40">
       <c r="AN171" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="172" spans="40:40">
       <c r="AN172" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="40:40">
       <c r="AN173" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="174" spans="40:40">
       <c r="AN174" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="175" spans="40:40">
       <c r="AN175" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="176" spans="40:40">
       <c r="AN176" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="177" spans="40:40">
       <c r="AN177" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="178" spans="40:40">
       <c r="AN178" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" spans="40:40">
       <c r="AN179" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="40:40">
       <c r="AN180" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" spans="40:40">
       <c r="AN181" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="40:40">
       <c r="AN182" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="183" spans="40:40">
       <c r="AN183" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="40:40">
       <c r="AN184" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="40:40">
       <c r="AN185" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="40:40">
       <c r="AN186" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="187" spans="40:40">
       <c r="AN187" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="188" spans="40:40">
       <c r="AN188" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="40:40">
       <c r="AN189" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="190" spans="40:40">
       <c r="AN190" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="40:40">
       <c r="AN191" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="192" spans="40:40">
       <c r="AN192" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="193" spans="40:40">
       <c r="AN193" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="194" spans="40:40">
       <c r="AN194" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="40:40">
       <c r="AN195" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="196" spans="40:40">
       <c r="AN196" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="40:40">
       <c r="AN197" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="198" spans="40:40">
       <c r="AN198" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="40:40">
       <c r="AN199" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="200" spans="40:40">
       <c r="AN200" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="201" spans="40:40">
       <c r="AN201" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="202" spans="40:40">
       <c r="AN202" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="203" spans="40:40">
       <c r="AN203" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="204" spans="40:40">
       <c r="AN204" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="40:40">
       <c r="AN205" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="40:40">
       <c r="AN206" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="207" spans="40:40">
       <c r="AN207" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="208" spans="40:40">
       <c r="AN208" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="209" spans="40:40">
       <c r="AN209" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="210" spans="40:40">
       <c r="AN210" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211" spans="40:40">
       <c r="AN211" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="212" spans="40:40">
       <c r="AN212" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="213" spans="40:40">
       <c r="AN213" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="214" spans="40:40">
       <c r="AN214" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="215" spans="40:40">
       <c r="AN215" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="216" spans="40:40">
       <c r="AN216" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="217" spans="40:40">
       <c r="AN217" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="40:40">
       <c r="AN218" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="219" spans="40:40">
       <c r="AN219" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="220" spans="40:40">
       <c r="AN220" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="221" spans="40:40">
       <c r="AN221" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="40:40">
       <c r="AN222" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="223" spans="40:40">
       <c r="AN223" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="224" spans="40:40">
       <c r="AN224" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="225" spans="40:40">
       <c r="AN225" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="226" spans="40:40">
       <c r="AN226" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="227" spans="40:40">
       <c r="AN227" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="228" spans="40:40">
       <c r="AN228" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="229" spans="40:40">
       <c r="AN229" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="40:40">
       <c r="AN230" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="40:40">
       <c r="AN231" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="232" spans="40:40">
       <c r="AN232" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="233" spans="40:40">
       <c r="AN233" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="234" spans="40:40">
       <c r="AN234" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="235" spans="40:40">
       <c r="AN235" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="236" spans="40:40">
       <c r="AN236" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="237" spans="40:40">
       <c r="AN237" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="238" spans="40:40">
       <c r="AN238" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="239" spans="40:40">
       <c r="AN239" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="240" spans="40:40">
       <c r="AN240" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="241" spans="40:40">
       <c r="AN241" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="242" spans="40:40">
       <c r="AN242" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="243" spans="40:40">
       <c r="AN243" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="40:40">
       <c r="AN244" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="245" spans="40:40">
       <c r="AN245" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="246" spans="40:40">
       <c r="AN246" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="247" spans="40:40">
       <c r="AN247" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="248" spans="40:40">
       <c r="AN248" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="249" spans="40:40">
       <c r="AN249" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="250" spans="40:40">
       <c r="AN250" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="251" spans="40:40">
       <c r="AN251" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="252" spans="40:40">
       <c r="AN252" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="253" spans="40:40">
       <c r="AN253" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="254" spans="40:40">
       <c r="AN254" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="255" spans="40:40">
       <c r="AN255" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="256" spans="40:40">
       <c r="AN256" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="257" spans="40:40">
       <c r="AN257" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="258" spans="40:40">
       <c r="AN258" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="259" spans="40:40">
       <c r="AN259" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="260" spans="40:40">
       <c r="AN260" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="261" spans="40:40">
       <c r="AN261" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="262" spans="40:40">
       <c r="AN262" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="263" spans="40:40">
       <c r="AN263" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="264" spans="40:40">
       <c r="AN264" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="265" spans="40:40">
       <c r="AN265" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="266" spans="40:40">
       <c r="AN266" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="267" spans="40:40">
       <c r="AN267" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="268" spans="40:40">
       <c r="AN268" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="269" spans="40:40">
       <c r="AN269" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="270" spans="40:40">
       <c r="AN270" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="271" spans="40:40">
       <c r="AN271" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="272" spans="40:40">
       <c r="AN272" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="273" spans="40:40">
       <c r="AN273" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="274" spans="40:40">
       <c r="AN274" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="275" spans="40:40">
       <c r="AN275" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="276" spans="40:40">
       <c r="AN276" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="277" spans="40:40">
       <c r="AN277" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="278" spans="40:40">
       <c r="AN278" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="279" spans="40:40">
       <c r="AN279" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="280" spans="40:40">
       <c r="AN280" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="281" spans="40:40">
       <c r="AN281" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="282" spans="40:40">
       <c r="AN282" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="283" spans="40:40">
       <c r="AN283" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="284" spans="40:40">
       <c r="AN284" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="285" spans="40:40">
       <c r="AN285" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="286" spans="40:40">
       <c r="AN286" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="287" spans="40:40">
       <c r="AN287" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="288" spans="40:40">
       <c r="AN288" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="289" spans="40:40">
       <c r="AN289" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="830">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3061,7 +3064,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3105,7 +3108,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3132,7 +3135,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3849,6 +3852,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3873,27 +3881,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3916,122 +3924,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4058,702 +4066,702 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -4791,1588 +4799,1588 @@
   <sheetData>
     <row r="1" spans="5:40">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="5:40">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="5:40">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="5:40">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="5:40">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="5:40">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="5:40">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="5:40">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="5:40">
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="5:40">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="5:40">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="5:40">
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="5:40">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="5:40">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="5:40">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="5:40">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="5:40">
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="5:40">
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="5:40">
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="5:40">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="5:40">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="5:40">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="5:40">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="5:40">
       <c r="E24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN24" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="5:40">
       <c r="E25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="5:40">
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN26" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="5:40">
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="5:40">
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="29" spans="5:40">
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="5:40">
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="5:40">
       <c r="AN31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="5:40">
       <c r="AN32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="40:40">
       <c r="AN33" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="40:40">
       <c r="AN34" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="40:40">
       <c r="AN35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="40:40">
       <c r="AN36" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="40:40">
       <c r="AN37" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="40:40">
       <c r="AN38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="40:40">
       <c r="AN39" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="AN40" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="40:40">
       <c r="AN41" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="40:40">
       <c r="AN42" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="40:40">
       <c r="AN43" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="40:40">
       <c r="AN44" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="40:40">
       <c r="AN45" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="40:40">
       <c r="AN46" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="40:40">
       <c r="AN47" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="40:40">
       <c r="AN48" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="40:40">
       <c r="AN49" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="40:40">
       <c r="AN50" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="40:40">
       <c r="AN51" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="40:40">
       <c r="AN52" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="40:40">
       <c r="AN53" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="40:40">
       <c r="AN54" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="40:40">
       <c r="AN55" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="40:40">
       <c r="AN56" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="40:40">
       <c r="AN57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="40:40">
       <c r="AN58" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="40:40">
       <c r="AN60" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="40:40">
       <c r="AN61" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="40:40">
       <c r="AN63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="40:40">
       <c r="AN64" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="40:40">
       <c r="AN65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="40:40">
       <c r="AN66" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="40:40">
       <c r="AN67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="40:40">
       <c r="AN68" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="40:40">
       <c r="AN69" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70" spans="40:40">
       <c r="AN70" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="40:40">
       <c r="AN71" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="40:40">
       <c r="AN72" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="40:40">
       <c r="AN73" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="40:40">
       <c r="AN74" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="40:40">
       <c r="AN75" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="40:40">
       <c r="AN76" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" spans="40:40">
       <c r="AN77" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="40:40">
       <c r="AN78" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="40:40">
       <c r="AN79" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="40:40">
       <c r="AN80" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="81" spans="40:40">
       <c r="AN81" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="40:40">
       <c r="AN82" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="40:40">
       <c r="AN83" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="40:40">
       <c r="AN84" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="40:40">
       <c r="AN85" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="40:40">
       <c r="AN86" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="40:40">
       <c r="AN88" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="40:40">
       <c r="AN89" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="40:40">
       <c r="AN90" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="40:40">
       <c r="AN91" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="40:40">
       <c r="AN92" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="40:40">
       <c r="AN93" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="40:40">
       <c r="AN94" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="40:40">
       <c r="AN95" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" spans="40:40">
       <c r="AN96" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97" spans="40:40">
       <c r="AN97" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="40:40">
       <c r="AN98" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="99" spans="40:40">
       <c r="AN99" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="40:40">
       <c r="AN100" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="40:40">
       <c r="AN101" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="40:40">
       <c r="AN102" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="40:40">
       <c r="AN103" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="104" spans="40:40">
       <c r="AN104" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="40:40">
       <c r="AN105" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="40:40">
       <c r="AN106" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" spans="40:40">
       <c r="AN107" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="40:40">
       <c r="AN108" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="40:40">
       <c r="AN109" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="40:40">
       <c r="AN110" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="40:40">
       <c r="AN111" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="40:40">
       <c r="AN112" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="40:40">
       <c r="AN113" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="40:40">
       <c r="AN114" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" spans="40:40">
       <c r="AN115" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="40:40">
       <c r="AN116" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="40:40">
       <c r="AN117" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="40:40">
       <c r="AN118" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="40:40">
       <c r="AN119" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="40:40">
       <c r="AN120" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="121" spans="40:40">
       <c r="AN121" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="122" spans="40:40">
       <c r="AN122" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="123" spans="40:40">
       <c r="AN123" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124" spans="40:40">
       <c r="AN124" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="125" spans="40:40">
       <c r="AN125" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="126" spans="40:40">
       <c r="AN126" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="127" spans="40:40">
       <c r="AN127" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="128" spans="40:40">
       <c r="AN128" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="40:40">
       <c r="AN129" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="130" spans="40:40">
       <c r="AN130" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="40:40">
       <c r="AN131" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="132" spans="40:40">
       <c r="AN132" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="40:40">
       <c r="AN133" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="40:40">
       <c r="AN134" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="40:40">
       <c r="AN135" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="40:40">
       <c r="AN136" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="40:40">
       <c r="AN137" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="138" spans="40:40">
       <c r="AN138" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="139" spans="40:40">
       <c r="AN139" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="40:40">
       <c r="AN140" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="40:40">
       <c r="AN141" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="40:40">
       <c r="AN142" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="143" spans="40:40">
       <c r="AN143" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144" spans="40:40">
       <c r="AN144" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="145" spans="40:40">
       <c r="AN145" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="146" spans="40:40">
       <c r="AN146" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="40:40">
       <c r="AN147" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="148" spans="40:40">
       <c r="AN148" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="149" spans="40:40">
       <c r="AN149" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" spans="40:40">
       <c r="AN150" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="151" spans="40:40">
       <c r="AN151" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="152" spans="40:40">
       <c r="AN152" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="40:40">
       <c r="AN153" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="154" spans="40:40">
       <c r="AN154" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="155" spans="40:40">
       <c r="AN155" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="40:40">
       <c r="AN156" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="157" spans="40:40">
       <c r="AN157" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="158" spans="40:40">
       <c r="AN158" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="159" spans="40:40">
       <c r="AN159" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="160" spans="40:40">
       <c r="AN160" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="161" spans="40:40">
       <c r="AN161" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="40:40">
       <c r="AN162" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="163" spans="40:40">
       <c r="AN163" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="164" spans="40:40">
       <c r="AN164" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="165" spans="40:40">
       <c r="AN165" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="166" spans="40:40">
       <c r="AN166" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="167" spans="40:40">
       <c r="AN167" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="168" spans="40:40">
       <c r="AN168" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="169" spans="40:40">
       <c r="AN169" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="40:40">
       <c r="AN170" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="171" spans="40:40">
       <c r="AN171" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="172" spans="40:40">
       <c r="AN172" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="173" spans="40:40">
       <c r="AN173" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="40:40">
       <c r="AN174" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="175" spans="40:40">
       <c r="AN175" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" spans="40:40">
       <c r="AN176" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="177" spans="40:40">
       <c r="AN177" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="40:40">
       <c r="AN178" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="40:40">
       <c r="AN179" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="180" spans="40:40">
       <c r="AN180" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="181" spans="40:40">
       <c r="AN181" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="182" spans="40:40">
       <c r="AN182" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="183" spans="40:40">
       <c r="AN183" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="184" spans="40:40">
       <c r="AN184" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="185" spans="40:40">
       <c r="AN185" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="186" spans="40:40">
       <c r="AN186" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="187" spans="40:40">
       <c r="AN187" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="188" spans="40:40">
       <c r="AN188" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="189" spans="40:40">
       <c r="AN189" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="40:40">
       <c r="AN190" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="191" spans="40:40">
       <c r="AN191" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="40:40">
       <c r="AN192" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="40:40">
       <c r="AN193" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="194" spans="40:40">
       <c r="AN194" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195" spans="40:40">
       <c r="AN195" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="40:40">
       <c r="AN196" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="197" spans="40:40">
       <c r="AN197" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="40:40">
       <c r="AN198" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" spans="40:40">
       <c r="AN199" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="200" spans="40:40">
       <c r="AN200" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="201" spans="40:40">
       <c r="AN201" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="202" spans="40:40">
       <c r="AN202" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="203" spans="40:40">
       <c r="AN203" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="204" spans="40:40">
       <c r="AN204" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="205" spans="40:40">
       <c r="AN205" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="206" spans="40:40">
       <c r="AN206" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="207" spans="40:40">
       <c r="AN207" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="208" spans="40:40">
       <c r="AN208" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="209" spans="40:40">
       <c r="AN209" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="40:40">
       <c r="AN210" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="211" spans="40:40">
       <c r="AN211" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="212" spans="40:40">
       <c r="AN212" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="213" spans="40:40">
       <c r="AN213" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" spans="40:40">
       <c r="AN214" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="215" spans="40:40">
       <c r="AN215" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="216" spans="40:40">
       <c r="AN216" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="40:40">
       <c r="AN217" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="218" spans="40:40">
       <c r="AN218" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="219" spans="40:40">
       <c r="AN219" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="220" spans="40:40">
       <c r="AN220" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="221" spans="40:40">
       <c r="AN221" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="222" spans="40:40">
       <c r="AN222" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="223" spans="40:40">
       <c r="AN223" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="224" spans="40:40">
       <c r="AN224" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="225" spans="40:40">
       <c r="AN225" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="226" spans="40:40">
       <c r="AN226" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="227" spans="40:40">
       <c r="AN227" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="228" spans="40:40">
       <c r="AN228" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="229" spans="40:40">
       <c r="AN229" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="230" spans="40:40">
       <c r="AN230" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="231" spans="40:40">
       <c r="AN231" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="232" spans="40:40">
       <c r="AN232" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="233" spans="40:40">
       <c r="AN233" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="234" spans="40:40">
       <c r="AN234" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="235" spans="40:40">
       <c r="AN235" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="236" spans="40:40">
       <c r="AN236" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="237" spans="40:40">
       <c r="AN237" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="238" spans="40:40">
       <c r="AN238" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="239" spans="40:40">
       <c r="AN239" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="240" spans="40:40">
       <c r="AN240" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="241" spans="40:40">
       <c r="AN241" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="242" spans="40:40">
       <c r="AN242" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="243" spans="40:40">
       <c r="AN243" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="244" spans="40:40">
       <c r="AN244" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="245" spans="40:40">
       <c r="AN245" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="246" spans="40:40">
       <c r="AN246" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="247" spans="40:40">
       <c r="AN247" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="248" spans="40:40">
       <c r="AN248" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="249" spans="40:40">
       <c r="AN249" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="250" spans="40:40">
       <c r="AN250" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="251" spans="40:40">
       <c r="AN251" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="252" spans="40:40">
       <c r="AN252" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="253" spans="40:40">
       <c r="AN253" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="254" spans="40:40">
       <c r="AN254" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="255" spans="40:40">
       <c r="AN255" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="256" spans="40:40">
       <c r="AN256" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="257" spans="40:40">
       <c r="AN257" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="258" spans="40:40">
       <c r="AN258" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="259" spans="40:40">
       <c r="AN259" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="260" spans="40:40">
       <c r="AN260" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="261" spans="40:40">
       <c r="AN261" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="262" spans="40:40">
       <c r="AN262" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="263" spans="40:40">
       <c r="AN263" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="264" spans="40:40">
       <c r="AN264" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="265" spans="40:40">
       <c r="AN265" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="266" spans="40:40">
       <c r="AN266" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="267" spans="40:40">
       <c r="AN267" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="268" spans="40:40">
       <c r="AN268" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="269" spans="40:40">
       <c r="AN269" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="270" spans="40:40">
       <c r="AN270" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="271" spans="40:40">
       <c r="AN271" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="272" spans="40:40">
       <c r="AN272" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="273" spans="40:40">
       <c r="AN273" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="274" spans="40:40">
       <c r="AN274" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="275" spans="40:40">
       <c r="AN275" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="276" spans="40:40">
       <c r="AN276" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="277" spans="40:40">
       <c r="AN277" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="278" spans="40:40">
       <c r="AN278" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="279" spans="40:40">
       <c r="AN279" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="280" spans="40:40">
       <c r="AN280" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="281" spans="40:40">
       <c r="AN281" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="282" spans="40:40">
       <c r="AN282" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="283" spans="40:40">
       <c r="AN283" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="284" spans="40:40">
       <c r="AN284" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="285" spans="40:40">
       <c r="AN285" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="286" spans="40:40">
       <c r="AN286" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="287" spans="40:40">
       <c r="AN287" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="288" spans="40:40">
       <c r="AN288" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="289" spans="40:40">
       <c r="AN289" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="831">
   <si>
     <t>alias</t>
   </si>
@@ -723,6 +723,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3064,7 +3067,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3108,7 +3111,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3135,7 +3138,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3857,6 +3860,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3881,27 +3889,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3924,122 +3932,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4066,702 +4074,702 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -4799,1588 +4807,1588 @@
   <sheetData>
     <row r="1" spans="5:40">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="5:40">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="5:40">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="5:40">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="5:40">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="5:40">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="5:40">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="5:40">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="5:40">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="5:40">
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="5:40">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="5:40">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="5:40">
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="5:40">
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="5:40">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="5:40">
       <c r="E16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="5:40">
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="5:40">
       <c r="E18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="5:40">
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="5:40">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="5:40">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="5:40">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="5:40">
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="5:40">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="5:40">
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="5:40">
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="5:40">
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN27" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28" spans="5:40">
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="5:40">
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="5:40">
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="31" spans="5:40">
       <c r="AN31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="32" spans="5:40">
       <c r="AN32" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="40:40">
       <c r="AN33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="40:40">
       <c r="AN34" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="40:40">
       <c r="AN35" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" spans="40:40">
       <c r="AN36" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="40:40">
       <c r="AN37" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="40:40">
       <c r="AN38" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="40:40">
       <c r="AN39" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="AN40" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="40:40">
       <c r="AN41" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="40:40">
       <c r="AN42" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="40:40">
       <c r="AN43" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="40:40">
       <c r="AN44" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="40:40">
       <c r="AN45" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="40:40">
       <c r="AN46" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="40:40">
       <c r="AN47" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="40:40">
       <c r="AN48" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="40:40">
       <c r="AN49" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="40:40">
       <c r="AN50" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="40:40">
       <c r="AN51" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="40:40">
       <c r="AN52" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="40:40">
       <c r="AN53" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="40:40">
       <c r="AN54" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="40:40">
       <c r="AN55" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="40:40">
       <c r="AN56" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" spans="40:40">
       <c r="AN57" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="40:40">
       <c r="AN58" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="40:40">
       <c r="AN60" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="40:40">
       <c r="AN61" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="40:40">
       <c r="AN63" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="40:40">
       <c r="AN64" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="40:40">
       <c r="AN65" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="66" spans="40:40">
       <c r="AN66" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="40:40">
       <c r="AN67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="40:40">
       <c r="AN68" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="40:40">
       <c r="AN69" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="40:40">
       <c r="AN70" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="40:40">
       <c r="AN71" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="72" spans="40:40">
       <c r="AN72" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="40:40">
       <c r="AN73" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="40:40">
       <c r="AN74" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="75" spans="40:40">
       <c r="AN75" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="40:40">
       <c r="AN76" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="40:40">
       <c r="AN77" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="40:40">
       <c r="AN78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="40:40">
       <c r="AN79" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="40:40">
       <c r="AN80" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="40:40">
       <c r="AN81" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="40:40">
       <c r="AN82" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="40:40">
       <c r="AN83" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="40:40">
       <c r="AN84" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="40:40">
       <c r="AN85" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="40:40">
       <c r="AN86" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="40:40">
       <c r="AN88" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="40:40">
       <c r="AN89" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" spans="40:40">
       <c r="AN90" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="40:40">
       <c r="AN91" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="40:40">
       <c r="AN92" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="40:40">
       <c r="AN93" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="40:40">
       <c r="AN94" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" spans="40:40">
       <c r="AN95" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="40:40">
       <c r="AN96" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="40:40">
       <c r="AN97" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="40:40">
       <c r="AN98" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="99" spans="40:40">
       <c r="AN99" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" spans="40:40">
       <c r="AN100" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="101" spans="40:40">
       <c r="AN101" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="40:40">
       <c r="AN102" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103" spans="40:40">
       <c r="AN103" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="40:40">
       <c r="AN104" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="40:40">
       <c r="AN105" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="40:40">
       <c r="AN106" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107" spans="40:40">
       <c r="AN107" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="40:40">
       <c r="AN108" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="40:40">
       <c r="AN109" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="40:40">
       <c r="AN110" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="40:40">
       <c r="AN111" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" spans="40:40">
       <c r="AN112" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="40:40">
       <c r="AN113" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" spans="40:40">
       <c r="AN114" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="40:40">
       <c r="AN115" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" spans="40:40">
       <c r="AN116" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="40:40">
       <c r="AN117" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="40:40">
       <c r="AN118" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="119" spans="40:40">
       <c r="AN119" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="120" spans="40:40">
       <c r="AN120" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="121" spans="40:40">
       <c r="AN121" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="40:40">
       <c r="AN122" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="123" spans="40:40">
       <c r="AN123" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="124" spans="40:40">
       <c r="AN124" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="125" spans="40:40">
       <c r="AN125" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="126" spans="40:40">
       <c r="AN126" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="127" spans="40:40">
       <c r="AN127" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="128" spans="40:40">
       <c r="AN128" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="129" spans="40:40">
       <c r="AN129" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="130" spans="40:40">
       <c r="AN130" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" spans="40:40">
       <c r="AN131" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132" spans="40:40">
       <c r="AN132" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133" spans="40:40">
       <c r="AN133" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="40:40">
       <c r="AN134" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="40:40">
       <c r="AN135" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136" spans="40:40">
       <c r="AN136" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="40:40">
       <c r="AN137" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138" spans="40:40">
       <c r="AN138" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="40:40">
       <c r="AN139" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="40:40">
       <c r="AN140" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141" spans="40:40">
       <c r="AN141" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142" spans="40:40">
       <c r="AN142" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" spans="40:40">
       <c r="AN143" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="144" spans="40:40">
       <c r="AN144" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="145" spans="40:40">
       <c r="AN145" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="146" spans="40:40">
       <c r="AN146" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="147" spans="40:40">
       <c r="AN147" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="148" spans="40:40">
       <c r="AN148" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="149" spans="40:40">
       <c r="AN149" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="150" spans="40:40">
       <c r="AN150" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="40:40">
       <c r="AN151" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="40:40">
       <c r="AN152" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="153" spans="40:40">
       <c r="AN153" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" spans="40:40">
       <c r="AN154" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="40:40">
       <c r="AN155" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="156" spans="40:40">
       <c r="AN156" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="157" spans="40:40">
       <c r="AN157" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="158" spans="40:40">
       <c r="AN158" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="40:40">
       <c r="AN159" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="160" spans="40:40">
       <c r="AN160" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="161" spans="40:40">
       <c r="AN161" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="162" spans="40:40">
       <c r="AN162" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="163" spans="40:40">
       <c r="AN163" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="164" spans="40:40">
       <c r="AN164" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="165" spans="40:40">
       <c r="AN165" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="166" spans="40:40">
       <c r="AN166" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="167" spans="40:40">
       <c r="AN167" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="168" spans="40:40">
       <c r="AN168" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="40:40">
       <c r="AN169" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="170" spans="40:40">
       <c r="AN170" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="171" spans="40:40">
       <c r="AN171" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="172" spans="40:40">
       <c r="AN172" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" spans="40:40">
       <c r="AN173" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="174" spans="40:40">
       <c r="AN174" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" spans="40:40">
       <c r="AN175" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="176" spans="40:40">
       <c r="AN176" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="177" spans="40:40">
       <c r="AN177" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" spans="40:40">
       <c r="AN178" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="179" spans="40:40">
       <c r="AN179" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180" spans="40:40">
       <c r="AN180" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="181" spans="40:40">
       <c r="AN181" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="182" spans="40:40">
       <c r="AN182" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="183" spans="40:40">
       <c r="AN183" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="40:40">
       <c r="AN184" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="185" spans="40:40">
       <c r="AN185" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="40:40">
       <c r="AN186" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="40:40">
       <c r="AN187" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="40:40">
       <c r="AN188" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="40:40">
       <c r="AN189" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="190" spans="40:40">
       <c r="AN190" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="191" spans="40:40">
       <c r="AN191" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="192" spans="40:40">
       <c r="AN192" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="193" spans="40:40">
       <c r="AN193" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="194" spans="40:40">
       <c r="AN194" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="40:40">
       <c r="AN195" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="40:40">
       <c r="AN196" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="40:40">
       <c r="AN197" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="198" spans="40:40">
       <c r="AN198" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="199" spans="40:40">
       <c r="AN199" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="40:40">
       <c r="AN200" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="201" spans="40:40">
       <c r="AN201" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="202" spans="40:40">
       <c r="AN202" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203" spans="40:40">
       <c r="AN203" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="204" spans="40:40">
       <c r="AN204" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="205" spans="40:40">
       <c r="AN205" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="206" spans="40:40">
       <c r="AN206" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="207" spans="40:40">
       <c r="AN207" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="208" spans="40:40">
       <c r="AN208" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="209" spans="40:40">
       <c r="AN209" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="210" spans="40:40">
       <c r="AN210" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="211" spans="40:40">
       <c r="AN211" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="212" spans="40:40">
       <c r="AN212" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="213" spans="40:40">
       <c r="AN213" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="214" spans="40:40">
       <c r="AN214" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="215" spans="40:40">
       <c r="AN215" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="40:40">
       <c r="AN216" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="217" spans="40:40">
       <c r="AN217" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="218" spans="40:40">
       <c r="AN218" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="219" spans="40:40">
       <c r="AN219" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="220" spans="40:40">
       <c r="AN220" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="221" spans="40:40">
       <c r="AN221" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="222" spans="40:40">
       <c r="AN222" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="223" spans="40:40">
       <c r="AN223" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="224" spans="40:40">
       <c r="AN224" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="40:40">
       <c r="AN225" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="226" spans="40:40">
       <c r="AN226" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="227" spans="40:40">
       <c r="AN227" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="228" spans="40:40">
       <c r="AN228" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="40:40">
       <c r="AN229" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="40:40">
       <c r="AN230" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="231" spans="40:40">
       <c r="AN231" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="232" spans="40:40">
       <c r="AN232" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233" spans="40:40">
       <c r="AN233" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="234" spans="40:40">
       <c r="AN234" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="235" spans="40:40">
       <c r="AN235" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="236" spans="40:40">
       <c r="AN236" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="237" spans="40:40">
       <c r="AN237" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="238" spans="40:40">
       <c r="AN238" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="239" spans="40:40">
       <c r="AN239" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="240" spans="40:40">
       <c r="AN240" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="241" spans="40:40">
       <c r="AN241" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="242" spans="40:40">
       <c r="AN242" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="243" spans="40:40">
       <c r="AN243" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="244" spans="40:40">
       <c r="AN244" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="245" spans="40:40">
       <c r="AN245" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="246" spans="40:40">
       <c r="AN246" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="247" spans="40:40">
       <c r="AN247" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="248" spans="40:40">
       <c r="AN248" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="249" spans="40:40">
       <c r="AN249" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="250" spans="40:40">
       <c r="AN250" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="251" spans="40:40">
       <c r="AN251" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="252" spans="40:40">
       <c r="AN252" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="253" spans="40:40">
       <c r="AN253" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="254" spans="40:40">
       <c r="AN254" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="255" spans="40:40">
       <c r="AN255" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="256" spans="40:40">
       <c r="AN256" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="257" spans="40:40">
       <c r="AN257" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="258" spans="40:40">
       <c r="AN258" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="259" spans="40:40">
       <c r="AN259" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="260" spans="40:40">
       <c r="AN260" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="261" spans="40:40">
       <c r="AN261" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="262" spans="40:40">
       <c r="AN262" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="263" spans="40:40">
       <c r="AN263" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="264" spans="40:40">
       <c r="AN264" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="265" spans="40:40">
       <c r="AN265" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="266" spans="40:40">
       <c r="AN266" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="267" spans="40:40">
       <c r="AN267" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="268" spans="40:40">
       <c r="AN268" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="269" spans="40:40">
       <c r="AN269" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="270" spans="40:40">
       <c r="AN270" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="271" spans="40:40">
       <c r="AN271" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="272" spans="40:40">
       <c r="AN272" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="273" spans="40:40">
       <c r="AN273" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="274" spans="40:40">
       <c r="AN274" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="275" spans="40:40">
       <c r="AN275" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="276" spans="40:40">
       <c r="AN276" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="277" spans="40:40">
       <c r="AN277" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="278" spans="40:40">
       <c r="AN278" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="279" spans="40:40">
       <c r="AN279" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="280" spans="40:40">
       <c r="AN280" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="281" spans="40:40">
       <c r="AN281" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="282" spans="40:40">
       <c r="AN282" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="283" spans="40:40">
       <c r="AN283" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="284" spans="40:40">
       <c r="AN284" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" spans="40:40">
       <c r="AN285" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="286" spans="40:40">
       <c r="AN286" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="287" spans="40:40">
       <c r="AN287" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="288" spans="40:40">
       <c r="AN288" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="289" spans="40:40">
       <c r="AN289" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="832">
   <si>
     <t>alias</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3067,7 +3070,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3111,7 +3114,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3141,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3865,6 +3868,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3889,27 +3897,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3932,122 +3940,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4074,702 +4082,702 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -4807,1588 +4815,1588 @@
   <sheetData>
     <row r="1" spans="5:40">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="5:40">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="5:40">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="5:40">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="5:40">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="5:40">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="5:40">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="5:40">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="5:40">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="5:40">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="5:40">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="5:40">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="5:40">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="5:40">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="5:40">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="5:40">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="5:40">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="5:40">
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AN18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="5:40">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="5:40">
       <c r="E20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="5:40">
       <c r="E21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="5:40">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="5:40">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="5:40">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN24" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="5:40">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="5:40">
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN26" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="5:40">
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="5:40">
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="5:40">
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="5:40">
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="5:40">
       <c r="AN31" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="5:40">
       <c r="AN32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="40:40">
       <c r="AN33" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="40:40">
       <c r="AN34" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="40:40">
       <c r="AN35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="40:40">
       <c r="AN36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="40:40">
       <c r="AN37" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="40:40">
       <c r="AN38" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="40:40">
       <c r="AN39" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="40:40">
       <c r="AN40" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="40:40">
       <c r="AN41" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="40:40">
       <c r="AN42" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="40:40">
       <c r="AN43" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44" spans="40:40">
       <c r="AN44" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="40:40">
       <c r="AN45" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="40:40">
       <c r="AN46" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="40:40">
       <c r="AN47" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="40:40">
       <c r="AN48" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="40:40">
       <c r="AN49" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="40:40">
       <c r="AN50" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="40:40">
       <c r="AN51" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="40:40">
       <c r="AN52" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="53" spans="40:40">
       <c r="AN53" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="40:40">
       <c r="AN54" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="40:40">
       <c r="AN55" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="40:40">
       <c r="AN56" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="40:40">
       <c r="AN57" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="40:40">
       <c r="AN58" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="40:40">
       <c r="AN59" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="60" spans="40:40">
       <c r="AN60" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="61" spans="40:40">
       <c r="AN61" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="62" spans="40:40">
       <c r="AN62" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="40:40">
       <c r="AN63" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="40:40">
       <c r="AN64" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="40:40">
       <c r="AN65" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="40:40">
       <c r="AN66" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="40:40">
       <c r="AN67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" spans="40:40">
       <c r="AN68" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="40:40">
       <c r="AN69" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="40:40">
       <c r="AN70" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="40:40">
       <c r="AN71" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="72" spans="40:40">
       <c r="AN72" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" spans="40:40">
       <c r="AN73" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="40:40">
       <c r="AN74" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="40:40">
       <c r="AN75" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="40:40">
       <c r="AN76" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="40:40">
       <c r="AN77" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="40:40">
       <c r="AN78" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="40:40">
       <c r="AN79" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="40:40">
       <c r="AN80" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="40:40">
       <c r="AN81" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="40:40">
       <c r="AN82" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" spans="40:40">
       <c r="AN83" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="40:40">
       <c r="AN84" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="40:40">
       <c r="AN85" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="40:40">
       <c r="AN86" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="40:40">
       <c r="AN87" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="88" spans="40:40">
       <c r="AN88" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="40:40">
       <c r="AN89" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="90" spans="40:40">
       <c r="AN90" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91" spans="40:40">
       <c r="AN91" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="92" spans="40:40">
       <c r="AN92" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="40:40">
       <c r="AN93" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="40:40">
       <c r="AN94" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="40:40">
       <c r="AN95" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="40:40">
       <c r="AN96" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="40:40">
       <c r="AN97" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="40:40">
       <c r="AN98" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="40:40">
       <c r="AN99" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="40:40">
       <c r="AN100" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="40:40">
       <c r="AN101" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="40:40">
       <c r="AN102" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="40:40">
       <c r="AN103" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="40:40">
       <c r="AN104" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="40:40">
       <c r="AN105" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="40:40">
       <c r="AN106" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="40:40">
       <c r="AN107" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="40:40">
       <c r="AN108" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109" spans="40:40">
       <c r="AN109" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="40:40">
       <c r="AN110" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="40:40">
       <c r="AN111" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="40:40">
       <c r="AN112" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="113" spans="40:40">
       <c r="AN113" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="40:40">
       <c r="AN114" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="40:40">
       <c r="AN115" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="40:40">
       <c r="AN116" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="40:40">
       <c r="AN117" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="40:40">
       <c r="AN118" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="40:40">
       <c r="AN119" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="120" spans="40:40">
       <c r="AN120" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="121" spans="40:40">
       <c r="AN121" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="40:40">
       <c r="AN122" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="123" spans="40:40">
       <c r="AN123" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="124" spans="40:40">
       <c r="AN124" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="40:40">
       <c r="AN125" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126" spans="40:40">
       <c r="AN126" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="40:40">
       <c r="AN127" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="40:40">
       <c r="AN128" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="40:40">
       <c r="AN129" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="40:40">
       <c r="AN130" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="131" spans="40:40">
       <c r="AN131" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="132" spans="40:40">
       <c r="AN132" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="133" spans="40:40">
       <c r="AN133" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="40:40">
       <c r="AN134" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="40:40">
       <c r="AN135" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="40:40">
       <c r="AN136" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="137" spans="40:40">
       <c r="AN137" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="138" spans="40:40">
       <c r="AN138" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="40:40">
       <c r="AN139" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="40:40">
       <c r="AN140" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="141" spans="40:40">
       <c r="AN141" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="142" spans="40:40">
       <c r="AN142" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="40:40">
       <c r="AN143" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="40:40">
       <c r="AN144" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="145" spans="40:40">
       <c r="AN145" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="146" spans="40:40">
       <c r="AN146" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="147" spans="40:40">
       <c r="AN147" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="40:40">
       <c r="AN148" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="149" spans="40:40">
       <c r="AN149" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="150" spans="40:40">
       <c r="AN150" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" spans="40:40">
       <c r="AN151" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="152" spans="40:40">
       <c r="AN152" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="153" spans="40:40">
       <c r="AN153" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="40:40">
       <c r="AN154" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="40:40">
       <c r="AN155" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="40:40">
       <c r="AN156" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="157" spans="40:40">
       <c r="AN157" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="158" spans="40:40">
       <c r="AN158" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="159" spans="40:40">
       <c r="AN159" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="160" spans="40:40">
       <c r="AN160" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="40:40">
       <c r="AN161" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="40:40">
       <c r="AN162" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="163" spans="40:40">
       <c r="AN163" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164" spans="40:40">
       <c r="AN164" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="165" spans="40:40">
       <c r="AN165" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="166" spans="40:40">
       <c r="AN166" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="40:40">
       <c r="AN167" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="40:40">
       <c r="AN168" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="169" spans="40:40">
       <c r="AN169" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="40:40">
       <c r="AN170" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="171" spans="40:40">
       <c r="AN171" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="172" spans="40:40">
       <c r="AN172" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="173" spans="40:40">
       <c r="AN173" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="40:40">
       <c r="AN174" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="175" spans="40:40">
       <c r="AN175" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="176" spans="40:40">
       <c r="AN176" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="177" spans="40:40">
       <c r="AN177" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="178" spans="40:40">
       <c r="AN178" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="179" spans="40:40">
       <c r="AN179" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" spans="40:40">
       <c r="AN180" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="181" spans="40:40">
       <c r="AN181" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="40:40">
       <c r="AN182" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="183" spans="40:40">
       <c r="AN183" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="184" spans="40:40">
       <c r="AN184" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" spans="40:40">
       <c r="AN185" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="40:40">
       <c r="AN186" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="40:40">
       <c r="AN187" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="188" spans="40:40">
       <c r="AN188" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="189" spans="40:40">
       <c r="AN189" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="40:40">
       <c r="AN190" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="40:40">
       <c r="AN191" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="192" spans="40:40">
       <c r="AN192" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="193" spans="40:40">
       <c r="AN193" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="40:40">
       <c r="AN194" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="195" spans="40:40">
       <c r="AN195" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="40:40">
       <c r="AN196" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="197" spans="40:40">
       <c r="AN197" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="198" spans="40:40">
       <c r="AN198" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="199" spans="40:40">
       <c r="AN199" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="40:40">
       <c r="AN200" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="201" spans="40:40">
       <c r="AN201" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="202" spans="40:40">
       <c r="AN202" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="203" spans="40:40">
       <c r="AN203" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="204" spans="40:40">
       <c r="AN204" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="205" spans="40:40">
       <c r="AN205" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="206" spans="40:40">
       <c r="AN206" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="207" spans="40:40">
       <c r="AN207" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="208" spans="40:40">
       <c r="AN208" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="209" spans="40:40">
       <c r="AN209" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="210" spans="40:40">
       <c r="AN210" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="211" spans="40:40">
       <c r="AN211" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="212" spans="40:40">
       <c r="AN212" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="213" spans="40:40">
       <c r="AN213" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="214" spans="40:40">
       <c r="AN214" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="215" spans="40:40">
       <c r="AN215" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="216" spans="40:40">
       <c r="AN216" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="217" spans="40:40">
       <c r="AN217" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="218" spans="40:40">
       <c r="AN218" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="219" spans="40:40">
       <c r="AN219" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="220" spans="40:40">
       <c r="AN220" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="221" spans="40:40">
       <c r="AN221" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="222" spans="40:40">
       <c r="AN222" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="223" spans="40:40">
       <c r="AN223" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="224" spans="40:40">
       <c r="AN224" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="225" spans="40:40">
       <c r="AN225" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="226" spans="40:40">
       <c r="AN226" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="227" spans="40:40">
       <c r="AN227" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="40:40">
       <c r="AN228" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="229" spans="40:40">
       <c r="AN229" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="230" spans="40:40">
       <c r="AN230" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="231" spans="40:40">
       <c r="AN231" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="232" spans="40:40">
       <c r="AN232" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="233" spans="40:40">
       <c r="AN233" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="234" spans="40:40">
       <c r="AN234" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="235" spans="40:40">
       <c r="AN235" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="236" spans="40:40">
       <c r="AN236" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="237" spans="40:40">
       <c r="AN237" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="238" spans="40:40">
       <c r="AN238" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="239" spans="40:40">
       <c r="AN239" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="240" spans="40:40">
       <c r="AN240" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="241" spans="40:40">
       <c r="AN241" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="242" spans="40:40">
       <c r="AN242" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="243" spans="40:40">
       <c r="AN243" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="40:40">
       <c r="AN244" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="245" spans="40:40">
       <c r="AN245" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="246" spans="40:40">
       <c r="AN246" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="247" spans="40:40">
       <c r="AN247" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="248" spans="40:40">
       <c r="AN248" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="249" spans="40:40">
       <c r="AN249" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="250" spans="40:40">
       <c r="AN250" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="251" spans="40:40">
       <c r="AN251" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="252" spans="40:40">
       <c r="AN252" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="253" spans="40:40">
       <c r="AN253" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="254" spans="40:40">
       <c r="AN254" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="255" spans="40:40">
       <c r="AN255" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="256" spans="40:40">
       <c r="AN256" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="257" spans="40:40">
       <c r="AN257" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="258" spans="40:40">
       <c r="AN258" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="259" spans="40:40">
       <c r="AN259" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="260" spans="40:40">
       <c r="AN260" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="261" spans="40:40">
       <c r="AN261" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="262" spans="40:40">
       <c r="AN262" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="263" spans="40:40">
       <c r="AN263" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="264" spans="40:40">
       <c r="AN264" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="265" spans="40:40">
       <c r="AN265" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="266" spans="40:40">
       <c r="AN266" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="267" spans="40:40">
       <c r="AN267" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="268" spans="40:40">
       <c r="AN268" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="269" spans="40:40">
       <c r="AN269" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="270" spans="40:40">
       <c r="AN270" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="271" spans="40:40">
       <c r="AN271" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="272" spans="40:40">
       <c r="AN272" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="273" spans="40:40">
       <c r="AN273" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="274" spans="40:40">
       <c r="AN274" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="275" spans="40:40">
       <c r="AN275" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="276" spans="40:40">
       <c r="AN276" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="277" spans="40:40">
       <c r="AN277" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="278" spans="40:40">
       <c r="AN278" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="279" spans="40:40">
       <c r="AN279" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="280" spans="40:40">
       <c r="AN280" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="281" spans="40:40">
       <c r="AN281" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="282" spans="40:40">
       <c r="AN282" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="283" spans="40:40">
       <c r="AN283" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="284" spans="40:40">
       <c r="AN284" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="285" spans="40:40">
       <c r="AN285" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="286" spans="40:40">
       <c r="AN286" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="287" spans="40:40">
       <c r="AN287" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="288" spans="40:40">
       <c r="AN288" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="289" spans="40:40">
       <c r="AN289" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="837">
   <si>
     <t>alias</t>
   </si>
@@ -938,7 +938,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -959,13 +959,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -992,7 +992,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1004,25 +1004,25 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1034,13 +1034,13 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1052,37 +1052,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1097,31 +1097,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1133,37 +1133,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1175,25 +1175,25 @@
     <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1412,9 +1412,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1433,6 +1430,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1634,6 +1634,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1643,9 +1646,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1685,7 +1685,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1754,6 +1754,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1829,6 +1832,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1850,6 +1856,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1895,6 +1904,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1907,6 +1919,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1916,9 +1931,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1943,6 +1955,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2003,12 +2018,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2066,31 +2081,31 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>mean friction velocity</t>
+    <t>mean_friction_velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean friction velocity (Units: m/s)</t>
   </si>
   <si>
-    <t>mean peak friction velocity</t>
+    <t>mean_peak_friction_velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean peak friction velocity (Units: m/s)</t>
@@ -2099,7 +2114,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2114,25 +2129,25 @@
     <t>(Optional) Turbidity measurement (Units: NTU)</t>
   </si>
   <si>
-    <t>pH</t>
+    <t>ph</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>water content</t>
+    <t>water_content</t>
   </si>
   <si>
     <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
   </si>
   <si>
-    <t>alkyl diethers</t>
+    <t>alkyl_diethers</t>
   </si>
   <si>
     <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
-    <t>aminopeptidase activity</t>
+    <t>aminopeptidase_activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
@@ -2144,7 +2159,7 @@
     <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>bacterial carbon production</t>
+    <t>bacterial_carbon_production</t>
   </si>
   <si>
     <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
@@ -2153,7 +2168,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2165,10 +2180,10 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>carbon/nitrogen ratio</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>carbonnitrogen_ratio</t>
   </si>
   <si>
     <t>(Optional) Ratio of amount or concentrations of carbon to nitrogen</t>
@@ -2186,37 +2201,37 @@
     <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
-    <t>diether lipids</t>
+    <t>diether_lipids</t>
   </si>
   <si>
     <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
-    <t>dissolved carbon dioxide</t>
+    <t>dissolved_carbon_dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved hydrogen</t>
+    <t>dissolved_hydrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved inorganic carbon</t>
+    <t>dissolved_inorganic_carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved organic carbon</t>
+    <t>dissolved_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved organic nitrogen</t>
+    <t>dissolved_organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
@@ -2228,13 +2243,13 @@
     <t>(Optional) Methane (gas) amount or concentration at the time of sampling (Units: µM/L)</t>
   </si>
   <si>
-    <t>dissolved oxygen</t>
+    <t>dissolved_oxygen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
-    <t>glucosidase activity</t>
+    <t>glucosidase_activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
@@ -2243,10 +2258,10 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
-  </si>
-  <si>
-    <t>n-alkanes</t>
+    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>nalkanes</t>
   </si>
   <si>
     <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
@@ -2264,37 +2279,37 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total nitrogen concentration</t>
+    <t>total_nitrogen_concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic carbon</t>
+    <t>organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic matter</t>
+    <t>organic_matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic nitrogen</t>
+    <t>organic_nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>particulate organic carbon</t>
+    <t>particulate_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
-    <t>petroleum hydrocarbon</t>
+    <t>petroleum_hydrocarbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
@@ -2312,7 +2327,7 @@
     <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>phospholipid fatty acid</t>
+    <t>phospholipid_fatty_acid</t>
   </si>
   <si>
     <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
@@ -2324,7 +2339,7 @@
     <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>redox potential</t>
+    <t>redox_potential</t>
   </si>
   <si>
     <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
@@ -2336,7 +2351,7 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>total carbon</t>
+    <t>total_carbon</t>
   </si>
   <si>
     <t>(Optional) Total carbon content (Units: µg/L)</t>
@@ -2354,7 +2369,7 @@
     <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total organic carbon</t>
+    <t>total_organic_carbon</t>
   </si>
   <si>
     <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
@@ -2363,19 +2378,19 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
-  </si>
-  <si>
-    <t>total nitrogen content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
+  </si>
+  <si>
+    <t>total_nitrogen_content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2384,7 +2399,7 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2396,121 +2411,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2525,10 +2540,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
-  </si>
-  <si>
-    <t>chemical administration</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+  </si>
+  <si>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4193,238 +4208,238 @@
         <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
@@ -4546,238 +4561,238 @@
         <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +4822,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AN289"/>
+  <dimension ref="E1:AN294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6399,6 +6414,31 @@
         <v>675</v>
       </c>
     </row>
+    <row r="290" spans="40:40">
+      <c r="AN290" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="291" spans="40:40">
+      <c r="AN291" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="292" spans="40:40">
+      <c r="AN292" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="293" spans="40:40">
+      <c r="AN293" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="294" spans="40:40">
+      <c r="AN294" t="s">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="832">
   <si>
     <t>alias</t>
   </si>
@@ -938,7 +938,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -959,13 +959,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -992,7 +992,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1004,25 +1004,25 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1034,13 +1034,13 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1052,37 +1052,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1097,31 +1097,31 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1133,37 +1133,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1175,25 +1175,25 @@
     <t>(Mandatory) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1412,6 +1412,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1430,9 +1433,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1634,9 +1634,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1646,6 +1643,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1685,7 +1685,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1754,9 +1754,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1832,9 +1829,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1856,9 +1850,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1904,9 +1895,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1919,9 +1907,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1931,6 +1916,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1955,9 +1943,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2018,12 +2003,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2081,31 +2066,31 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>mean_friction_velocity</t>
+    <t>mean friction velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean friction velocity (Units: m/s)</t>
   </si>
   <si>
-    <t>mean_peak_friction_velocity</t>
+    <t>mean peak friction velocity</t>
   </si>
   <si>
     <t>(Optional) Measurement of mean peak friction velocity (Units: m/s)</t>
@@ -2114,7 +2099,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2129,25 +2114,25 @@
     <t>(Optional) Turbidity measurement (Units: NTU)</t>
   </si>
   <si>
-    <t>ph</t>
+    <t>pH</t>
   </si>
   <si>
     <t>(Optional) Ph measurement</t>
   </si>
   <si>
-    <t>water_content</t>
+    <t>water content</t>
   </si>
   <si>
     <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
   </si>
   <si>
-    <t>alkyl_diethers</t>
+    <t>alkyl diethers</t>
   </si>
   <si>
     <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
   </si>
   <si>
-    <t>aminopeptidase_activity</t>
+    <t>aminopeptidase activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of aminopeptidase activity (Units: mol/L/h)</t>
@@ -2159,7 +2144,7 @@
     <t>(Optional) Concentration of ammonium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>bacterial_carbon_production</t>
+    <t>bacterial carbon production</t>
   </si>
   <si>
     <t>(Optional) Measurement of bacterial carbon production (Units: ng/h)</t>
@@ -2168,7 +2153,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2180,10 +2165,10 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>carbonnitrogen_ratio</t>
+    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>carbon/nitrogen ratio</t>
   </si>
   <si>
     <t>(Optional) Ratio of amount or concentrations of carbon to nitrogen</t>
@@ -2201,37 +2186,37 @@
     <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
   </si>
   <si>
-    <t>diether_lipids</t>
+    <t>diether lipids</t>
   </si>
   <si>
     <t>(Optional) Concentration of diether lipids; can include multiple types of diether lipids (Units: ng/L)</t>
   </si>
   <si>
-    <t>dissolved_carbon_dioxide</t>
+    <t>dissolved carbon dioxide</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved carbon dioxide (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_hydrogen</t>
+    <t>dissolved hydrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved hydrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_inorganic_carbon</t>
+    <t>dissolved inorganic carbon</t>
   </si>
   <si>
     <t>(Optional) Dissolved inorganic carbon concentration (Units: µg/L)</t>
   </si>
   <si>
-    <t>dissolved_organic_carbon</t>
+    <t>dissolved organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>dissolved_organic_nitrogen</t>
+    <t>dissolved organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
@@ -2243,13 +2228,13 @@
     <t>(Optional) Methane (gas) amount or concentration at the time of sampling (Units: µM/L)</t>
   </si>
   <si>
-    <t>dissolved_oxygen</t>
+    <t>dissolved oxygen</t>
   </si>
   <si>
     <t>(Optional) Concentration of dissolved oxygen (Units: µmol/kg)</t>
   </si>
   <si>
-    <t>glucosidase_activity</t>
+    <t>glucosidase activity</t>
   </si>
   <si>
     <t>(Optional) Measurement of glucosidase activity (Units: mol/L/h)</t>
@@ -2258,10 +2243,10 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>nalkanes</t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+  </si>
+  <si>
+    <t>n-alkanes</t>
   </si>
   <si>
     <t>(Optional) Concentration of n-alkanes; can include multiple n-alkanes (Units: µmol/L)</t>
@@ -2279,37 +2264,37 @@
     <t>(Optional) Concentration of nitrite (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_nitrogen_concentration</t>
+    <t>total nitrogen concentration</t>
   </si>
   <si>
     <t>(Optional) Concentration of nitrogen (total). total nitrogen concentration of water samples, calculated by: total nitrogen = total dissolved nitrogen + particulate nitrogen. can also be measured without filtering, reported as nitrogen (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic_carbon</t>
+    <t>organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic carbon (Units: µmol/L)</t>
   </si>
   <si>
-    <t>organic_matter</t>
+    <t>organic matter</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic matter (Units: µg/L)</t>
   </si>
   <si>
-    <t>organic_nitrogen</t>
+    <t>organic nitrogen</t>
   </si>
   <si>
     <t>(Optional) Concentration of organic nitrogen (Units: µg/L)</t>
   </si>
   <si>
-    <t>particulate_organic_carbon</t>
+    <t>particulate organic carbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of particulate organic carbon (Units: µg/L)</t>
   </si>
   <si>
-    <t>petroleum_hydrocarbon</t>
+    <t>petroleum hydrocarbon</t>
   </si>
   <si>
     <t>(Optional) Concentration of petroleum hydrocarbon (Units: µmol/L)</t>
@@ -2327,7 +2312,7 @@
     <t>(Optional) Concentration of phosphate (Units: µmol/L)</t>
   </si>
   <si>
-    <t>phospholipid_fatty_acid</t>
+    <t>phospholipid fatty acid</t>
   </si>
   <si>
     <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
@@ -2339,7 +2324,7 @@
     <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
   </si>
   <si>
-    <t>redox_potential</t>
+    <t>redox potential</t>
   </si>
   <si>
     <t>(Optional) Redox potential, measured relative to a hydrogen cell, indicating oxidation or reduction potential (Units: mV)</t>
@@ -2351,7 +2336,7 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>total_carbon</t>
+    <t>total carbon</t>
   </si>
   <si>
     <t>(Optional) Total carbon content (Units: µg/L)</t>
@@ -2369,7 +2354,7 @@
     <t>(Optional) Sodium concentration (Units: µmol/L)</t>
   </si>
   <si>
-    <t>total_organic_carbon</t>
+    <t>total organic carbon</t>
   </si>
   <si>
     <t>(Optional) Definition for soil: total organic c content of the soil units of g c/kg soil. definition otherwise: total organic carbon content (Units: g/kg)</t>
@@ -2378,19 +2363,19 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
-  </si>
-  <si>
-    <t>total_nitrogen_content</t>
-  </si>
-  <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+  </si>
+  <si>
+    <t>total nitrogen content</t>
+  </si>
+  <si>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2399,7 +2384,7 @@
     <t>(Optional) Alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate (Units: mEq/L)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
@@ -2411,121 +2396,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2540,10 +2525,10 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>chemical_administration</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+  </si>
+  <si>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4208,238 +4193,238 @@
         <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:117" ht="150" customHeight="1">
@@ -4561,238 +4546,238 @@
         <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -4822,7 +4807,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AN294"/>
+  <dimension ref="E1:AN289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6414,31 +6399,6 @@
         <v>675</v>
       </c>
     </row>
-    <row r="290" spans="40:40">
-      <c r="AN290" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="291" spans="40:40">
-      <c r="AN291" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="292" spans="40:40">
-      <c r="AN292" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="293" spans="40:40">
-      <c r="AN293" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="294" spans="40:40">
-      <c r="AN294" t="s">
-        <v>680</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -18,25 +18,25 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AN$1:$AN$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$N$1:$N$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$H$1:$H$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$P$1:$P$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$W$1:$W$3</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$J$1:$J$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$Y$1:$Y$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$G$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="836">
   <si>
     <t>alias</t>
   </si>
@@ -840,6 +840,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4065,7 +4077,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DM2"/>
+  <dimension ref="A1:DO2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4074,7 +4086,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117">
+    <row r="1" spans="1:119">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4088,19 +4100,19 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>322</v>
@@ -4115,10 +4127,10 @@
         <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>336</v>
@@ -4142,10 +4154,10 @@
         <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>357</v>
@@ -4193,10 +4205,10 @@
         <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>676</v>
+        <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>678</v>
+        <v>389</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>680</v>
@@ -4426,8 +4438,14 @@
       <c r="DM1" s="1" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="2" spans="1:117" ht="150" customHeight="1">
+      <c r="DN1" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:119" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4441,19 +4459,19 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>323</v>
@@ -4468,10 +4486,10 @@
         <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>337</v>
@@ -4495,10 +4513,10 @@
         <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>358</v>
@@ -4546,10 +4564,10 @@
         <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>677</v>
+        <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>679</v>
+        <v>390</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>681</v>
@@ -4779,25 +4797,31 @@
       <c r="DM2" s="2" t="s">
         <v>831</v>
       </c>
+      <c r="DN2" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="DO2" s="2" t="s">
+        <v>835</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
   </dataValidations>
@@ -4807,1596 +4831,1596 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:AN289"/>
+  <dimension ref="G1:AP289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:40">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:42">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="7:42">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="7:42">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="7:42">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="7:42">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="7:42">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="7:42">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="7:42">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="7:42">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="7:42">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="7:42">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="7:42">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="13" spans="7:42">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="7:42">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15" spans="7:42">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="7:42">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="7:42">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="7:42">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="7:42">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="7:42">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="7:42">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="7:42">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="7:42">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="7:42">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="7:42">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="7:42">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="7:42">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="7:42">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="7:42">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="N1" t="s">
-        <v>330</v>
-      </c>
-      <c r="W1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="2" spans="5:40">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AP29" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="7:42">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="N2" t="s">
-        <v>331</v>
-      </c>
-      <c r="W2" t="s">
-        <v>351</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="3" spans="5:40">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="W3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="5:40">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="5:40">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="6" spans="5:40">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="5:40">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="5:40">
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="9" spans="5:40">
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="5:40">
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="5:40">
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="5:40">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="13" spans="5:40">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="14" spans="5:40">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="5:40">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="5:40">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="17" spans="5:40">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="5:40">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="19" spans="5:40">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="5:40">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="21" spans="5:40">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="22" spans="5:40">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="23" spans="5:40">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="24" spans="5:40">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="25" spans="5:40">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="26" spans="5:40">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="5:40">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="28" spans="5:40">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="5:40">
-      <c r="E29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="30" spans="5:40">
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="31" spans="5:40">
-      <c r="AN31" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="32" spans="5:40">
-      <c r="AN32" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="33" spans="40:40">
-      <c r="AN33" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="40:40">
-      <c r="AN34" t="s">
+      <c r="AP30" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="35" spans="40:40">
-      <c r="AN35" t="s">
+    <row r="31" spans="7:42">
+      <c r="AP31" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="40:40">
-      <c r="AN36" t="s">
+    <row r="32" spans="7:42">
+      <c r="AP32" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="40:40">
-      <c r="AN37" t="s">
+    <row r="33" spans="42:42">
+      <c r="AP33" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="38" spans="40:40">
-      <c r="AN38" t="s">
+    <row r="34" spans="42:42">
+      <c r="AP34" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="40:40">
-      <c r="AN39" t="s">
+    <row r="35" spans="42:42">
+      <c r="AP35" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="40:40">
-      <c r="AN40" t="s">
+    <row r="36" spans="42:42">
+      <c r="AP36" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="41" spans="40:40">
-      <c r="AN41" t="s">
+    <row r="37" spans="42:42">
+      <c r="AP37" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="40:40">
-      <c r="AN42" t="s">
+    <row r="38" spans="42:42">
+      <c r="AP38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="43" spans="40:40">
-      <c r="AN43" t="s">
+    <row r="39" spans="42:42">
+      <c r="AP39" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="44" spans="40:40">
-      <c r="AN44" t="s">
+    <row r="40" spans="42:42">
+      <c r="AP40" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="40:40">
-      <c r="AN45" t="s">
+    <row r="41" spans="42:42">
+      <c r="AP41" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="46" spans="40:40">
-      <c r="AN46" t="s">
+    <row r="42" spans="42:42">
+      <c r="AP42" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="40:40">
-      <c r="AN47" t="s">
+    <row r="43" spans="42:42">
+      <c r="AP43" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="48" spans="40:40">
-      <c r="AN48" t="s">
+    <row r="44" spans="42:42">
+      <c r="AP44" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="40:40">
-      <c r="AN49" t="s">
+    <row r="45" spans="42:42">
+      <c r="AP45" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="40:40">
-      <c r="AN50" t="s">
+    <row r="46" spans="42:42">
+      <c r="AP46" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="40:40">
-      <c r="AN51" t="s">
+    <row r="47" spans="42:42">
+      <c r="AP47" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="52" spans="40:40">
-      <c r="AN52" t="s">
+    <row r="48" spans="42:42">
+      <c r="AP48" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="53" spans="40:40">
-      <c r="AN53" t="s">
+    <row r="49" spans="42:42">
+      <c r="AP49" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="54" spans="40:40">
-      <c r="AN54" t="s">
+    <row r="50" spans="42:42">
+      <c r="AP50" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="55" spans="40:40">
-      <c r="AN55" t="s">
+    <row r="51" spans="42:42">
+      <c r="AP51" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="56" spans="40:40">
-      <c r="AN56" t="s">
+    <row r="52" spans="42:42">
+      <c r="AP52" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="57" spans="40:40">
-      <c r="AN57" t="s">
+    <row r="53" spans="42:42">
+      <c r="AP53" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="58" spans="40:40">
-      <c r="AN58" t="s">
+    <row r="54" spans="42:42">
+      <c r="AP54" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="59" spans="40:40">
-      <c r="AN59" t="s">
+    <row r="55" spans="42:42">
+      <c r="AP55" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="60" spans="40:40">
-      <c r="AN60" t="s">
+    <row r="56" spans="42:42">
+      <c r="AP56" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="61" spans="40:40">
-      <c r="AN61" t="s">
+    <row r="57" spans="42:42">
+      <c r="AP57" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="62" spans="40:40">
-      <c r="AN62" t="s">
+    <row r="58" spans="42:42">
+      <c r="AP58" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="63" spans="40:40">
-      <c r="AN63" t="s">
+    <row r="59" spans="42:42">
+      <c r="AP59" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="64" spans="40:40">
-      <c r="AN64" t="s">
+    <row r="60" spans="42:42">
+      <c r="AP60" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="65" spans="40:40">
-      <c r="AN65" t="s">
+    <row r="61" spans="42:42">
+      <c r="AP61" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="66" spans="40:40">
-      <c r="AN66" t="s">
+    <row r="62" spans="42:42">
+      <c r="AP62" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="40:40">
-      <c r="AN67" t="s">
+    <row r="63" spans="42:42">
+      <c r="AP63" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="68" spans="40:40">
-      <c r="AN68" t="s">
+    <row r="64" spans="42:42">
+      <c r="AP64" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="40:40">
-      <c r="AN69" t="s">
+    <row r="65" spans="42:42">
+      <c r="AP65" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="70" spans="40:40">
-      <c r="AN70" t="s">
+    <row r="66" spans="42:42">
+      <c r="AP66" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="71" spans="40:40">
-      <c r="AN71" t="s">
+    <row r="67" spans="42:42">
+      <c r="AP67" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="72" spans="40:40">
-      <c r="AN72" t="s">
+    <row r="68" spans="42:42">
+      <c r="AP68" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="73" spans="40:40">
-      <c r="AN73" t="s">
+    <row r="69" spans="42:42">
+      <c r="AP69" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="74" spans="40:40">
-      <c r="AN74" t="s">
+    <row r="70" spans="42:42">
+      <c r="AP70" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="40:40">
-      <c r="AN75" t="s">
+    <row r="71" spans="42:42">
+      <c r="AP71" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="40:40">
-      <c r="AN76" t="s">
+    <row r="72" spans="42:42">
+      <c r="AP72" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="40:40">
-      <c r="AN77" t="s">
+    <row r="73" spans="42:42">
+      <c r="AP73" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="78" spans="40:40">
-      <c r="AN78" t="s">
+    <row r="74" spans="42:42">
+      <c r="AP74" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="79" spans="40:40">
-      <c r="AN79" t="s">
+    <row r="75" spans="42:42">
+      <c r="AP75" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="80" spans="40:40">
-      <c r="AN80" t="s">
+    <row r="76" spans="42:42">
+      <c r="AP76" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="81" spans="40:40">
-      <c r="AN81" t="s">
+    <row r="77" spans="42:42">
+      <c r="AP77" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="82" spans="40:40">
-      <c r="AN82" t="s">
+    <row r="78" spans="42:42">
+      <c r="AP78" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="83" spans="40:40">
-      <c r="AN83" t="s">
+    <row r="79" spans="42:42">
+      <c r="AP79" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="84" spans="40:40">
-      <c r="AN84" t="s">
+    <row r="80" spans="42:42">
+      <c r="AP80" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="85" spans="40:40">
-      <c r="AN85" t="s">
+    <row r="81" spans="42:42">
+      <c r="AP81" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="86" spans="40:40">
-      <c r="AN86" t="s">
+    <row r="82" spans="42:42">
+      <c r="AP82" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="87" spans="40:40">
-      <c r="AN87" t="s">
+    <row r="83" spans="42:42">
+      <c r="AP83" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="88" spans="40:40">
-      <c r="AN88" t="s">
+    <row r="84" spans="42:42">
+      <c r="AP84" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="89" spans="40:40">
-      <c r="AN89" t="s">
+    <row r="85" spans="42:42">
+      <c r="AP85" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="90" spans="40:40">
-      <c r="AN90" t="s">
+    <row r="86" spans="42:42">
+      <c r="AP86" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="91" spans="40:40">
-      <c r="AN91" t="s">
+    <row r="87" spans="42:42">
+      <c r="AP87" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="92" spans="40:40">
-      <c r="AN92" t="s">
+    <row r="88" spans="42:42">
+      <c r="AP88" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="93" spans="40:40">
-      <c r="AN93" t="s">
+    <row r="89" spans="42:42">
+      <c r="AP89" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="94" spans="40:40">
-      <c r="AN94" t="s">
+    <row r="90" spans="42:42">
+      <c r="AP90" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="95" spans="40:40">
-      <c r="AN95" t="s">
+    <row r="91" spans="42:42">
+      <c r="AP91" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="96" spans="40:40">
-      <c r="AN96" t="s">
+    <row r="92" spans="42:42">
+      <c r="AP92" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="97" spans="40:40">
-      <c r="AN97" t="s">
+    <row r="93" spans="42:42">
+      <c r="AP93" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="40:40">
-      <c r="AN98" t="s">
+    <row r="94" spans="42:42">
+      <c r="AP94" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="40:40">
-      <c r="AN99" t="s">
+    <row r="95" spans="42:42">
+      <c r="AP95" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="40:40">
-      <c r="AN100" t="s">
+    <row r="96" spans="42:42">
+      <c r="AP96" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="40:40">
-      <c r="AN101" t="s">
+    <row r="97" spans="42:42">
+      <c r="AP97" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="40:40">
-      <c r="AN102" t="s">
+    <row r="98" spans="42:42">
+      <c r="AP98" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="103" spans="40:40">
-      <c r="AN103" t="s">
+    <row r="99" spans="42:42">
+      <c r="AP99" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="104" spans="40:40">
-      <c r="AN104" t="s">
+    <row r="100" spans="42:42">
+      <c r="AP100" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="105" spans="40:40">
-      <c r="AN105" t="s">
+    <row r="101" spans="42:42">
+      <c r="AP101" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="106" spans="40:40">
-      <c r="AN106" t="s">
+    <row r="102" spans="42:42">
+      <c r="AP102" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="107" spans="40:40">
-      <c r="AN107" t="s">
+    <row r="103" spans="42:42">
+      <c r="AP103" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="108" spans="40:40">
-      <c r="AN108" t="s">
+    <row r="104" spans="42:42">
+      <c r="AP104" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="109" spans="40:40">
-      <c r="AN109" t="s">
+    <row r="105" spans="42:42">
+      <c r="AP105" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="110" spans="40:40">
-      <c r="AN110" t="s">
+    <row r="106" spans="42:42">
+      <c r="AP106" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="111" spans="40:40">
-      <c r="AN111" t="s">
+    <row r="107" spans="42:42">
+      <c r="AP107" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="112" spans="40:40">
-      <c r="AN112" t="s">
+    <row r="108" spans="42:42">
+      <c r="AP108" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="113" spans="40:40">
-      <c r="AN113" t="s">
+    <row r="109" spans="42:42">
+      <c r="AP109" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="114" spans="40:40">
-      <c r="AN114" t="s">
+    <row r="110" spans="42:42">
+      <c r="AP110" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="40:40">
-      <c r="AN115" t="s">
+    <row r="111" spans="42:42">
+      <c r="AP111" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="116" spans="40:40">
-      <c r="AN116" t="s">
+    <row r="112" spans="42:42">
+      <c r="AP112" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="117" spans="40:40">
-      <c r="AN117" t="s">
+    <row r="113" spans="42:42">
+      <c r="AP113" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="118" spans="40:40">
-      <c r="AN118" t="s">
+    <row r="114" spans="42:42">
+      <c r="AP114" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="119" spans="40:40">
-      <c r="AN119" t="s">
+    <row r="115" spans="42:42">
+      <c r="AP115" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="120" spans="40:40">
-      <c r="AN120" t="s">
+    <row r="116" spans="42:42">
+      <c r="AP116" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="121" spans="40:40">
-      <c r="AN121" t="s">
+    <row r="117" spans="42:42">
+      <c r="AP117" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="40:40">
-      <c r="AN122" t="s">
+    <row r="118" spans="42:42">
+      <c r="AP118" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="123" spans="40:40">
-      <c r="AN123" t="s">
+    <row r="119" spans="42:42">
+      <c r="AP119" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="124" spans="40:40">
-      <c r="AN124" t="s">
+    <row r="120" spans="42:42">
+      <c r="AP120" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="125" spans="40:40">
-      <c r="AN125" t="s">
+    <row r="121" spans="42:42">
+      <c r="AP121" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="126" spans="40:40">
-      <c r="AN126" t="s">
+    <row r="122" spans="42:42">
+      <c r="AP122" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="127" spans="40:40">
-      <c r="AN127" t="s">
+    <row r="123" spans="42:42">
+      <c r="AP123" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="128" spans="40:40">
-      <c r="AN128" t="s">
+    <row r="124" spans="42:42">
+      <c r="AP124" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="129" spans="40:40">
-      <c r="AN129" t="s">
+    <row r="125" spans="42:42">
+      <c r="AP125" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="130" spans="40:40">
-      <c r="AN130" t="s">
+    <row r="126" spans="42:42">
+      <c r="AP126" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="131" spans="40:40">
-      <c r="AN131" t="s">
+    <row r="127" spans="42:42">
+      <c r="AP127" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="132" spans="40:40">
-      <c r="AN132" t="s">
+    <row r="128" spans="42:42">
+      <c r="AP128" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="133" spans="40:40">
-      <c r="AN133" t="s">
+    <row r="129" spans="42:42">
+      <c r="AP129" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="134" spans="40:40">
-      <c r="AN134" t="s">
+    <row r="130" spans="42:42">
+      <c r="AP130" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="135" spans="40:40">
-      <c r="AN135" t="s">
+    <row r="131" spans="42:42">
+      <c r="AP131" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="136" spans="40:40">
-      <c r="AN136" t="s">
+    <row r="132" spans="42:42">
+      <c r="AP132" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="40:40">
-      <c r="AN137" t="s">
+    <row r="133" spans="42:42">
+      <c r="AP133" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="138" spans="40:40">
-      <c r="AN138" t="s">
+    <row r="134" spans="42:42">
+      <c r="AP134" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="139" spans="40:40">
-      <c r="AN139" t="s">
+    <row r="135" spans="42:42">
+      <c r="AP135" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="140" spans="40:40">
-      <c r="AN140" t="s">
+    <row r="136" spans="42:42">
+      <c r="AP136" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="40:40">
-      <c r="AN141" t="s">
+    <row r="137" spans="42:42">
+      <c r="AP137" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="142" spans="40:40">
-      <c r="AN142" t="s">
+    <row r="138" spans="42:42">
+      <c r="AP138" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="143" spans="40:40">
-      <c r="AN143" t="s">
+    <row r="139" spans="42:42">
+      <c r="AP139" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="144" spans="40:40">
-      <c r="AN144" t="s">
+    <row r="140" spans="42:42">
+      <c r="AP140" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="145" spans="40:40">
-      <c r="AN145" t="s">
+    <row r="141" spans="42:42">
+      <c r="AP141" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="146" spans="40:40">
-      <c r="AN146" t="s">
+    <row r="142" spans="42:42">
+      <c r="AP142" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="147" spans="40:40">
-      <c r="AN147" t="s">
+    <row r="143" spans="42:42">
+      <c r="AP143" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="148" spans="40:40">
-      <c r="AN148" t="s">
+    <row r="144" spans="42:42">
+      <c r="AP144" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="149" spans="40:40">
-      <c r="AN149" t="s">
+    <row r="145" spans="42:42">
+      <c r="AP145" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="150" spans="40:40">
-      <c r="AN150" t="s">
+    <row r="146" spans="42:42">
+      <c r="AP146" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="151" spans="40:40">
-      <c r="AN151" t="s">
+    <row r="147" spans="42:42">
+      <c r="AP147" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="152" spans="40:40">
-      <c r="AN152" t="s">
+    <row r="148" spans="42:42">
+      <c r="AP148" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="153" spans="40:40">
-      <c r="AN153" t="s">
+    <row r="149" spans="42:42">
+      <c r="AP149" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="154" spans="40:40">
-      <c r="AN154" t="s">
+    <row r="150" spans="42:42">
+      <c r="AP150" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="155" spans="40:40">
-      <c r="AN155" t="s">
+    <row r="151" spans="42:42">
+      <c r="AP151" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="156" spans="40:40">
-      <c r="AN156" t="s">
+    <row r="152" spans="42:42">
+      <c r="AP152" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="157" spans="40:40">
-      <c r="AN157" t="s">
+    <row r="153" spans="42:42">
+      <c r="AP153" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="158" spans="40:40">
-      <c r="AN158" t="s">
+    <row r="154" spans="42:42">
+      <c r="AP154" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="159" spans="40:40">
-      <c r="AN159" t="s">
+    <row r="155" spans="42:42">
+      <c r="AP155" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="160" spans="40:40">
-      <c r="AN160" t="s">
+    <row r="156" spans="42:42">
+      <c r="AP156" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="161" spans="40:40">
-      <c r="AN161" t="s">
+    <row r="157" spans="42:42">
+      <c r="AP157" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="162" spans="40:40">
-      <c r="AN162" t="s">
+    <row r="158" spans="42:42">
+      <c r="AP158" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="163" spans="40:40">
-      <c r="AN163" t="s">
+    <row r="159" spans="42:42">
+      <c r="AP159" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="164" spans="40:40">
-      <c r="AN164" t="s">
+    <row r="160" spans="42:42">
+      <c r="AP160" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="165" spans="40:40">
-      <c r="AN165" t="s">
+    <row r="161" spans="42:42">
+      <c r="AP161" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="166" spans="40:40">
-      <c r="AN166" t="s">
+    <row r="162" spans="42:42">
+      <c r="AP162" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="167" spans="40:40">
-      <c r="AN167" t="s">
+    <row r="163" spans="42:42">
+      <c r="AP163" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="168" spans="40:40">
-      <c r="AN168" t="s">
+    <row r="164" spans="42:42">
+      <c r="AP164" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="169" spans="40:40">
-      <c r="AN169" t="s">
+    <row r="165" spans="42:42">
+      <c r="AP165" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="170" spans="40:40">
-      <c r="AN170" t="s">
+    <row r="166" spans="42:42">
+      <c r="AP166" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="171" spans="40:40">
-      <c r="AN171" t="s">
+    <row r="167" spans="42:42">
+      <c r="AP167" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="172" spans="40:40">
-      <c r="AN172" t="s">
+    <row r="168" spans="42:42">
+      <c r="AP168" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="173" spans="40:40">
-      <c r="AN173" t="s">
+    <row r="169" spans="42:42">
+      <c r="AP169" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="174" spans="40:40">
-      <c r="AN174" t="s">
+    <row r="170" spans="42:42">
+      <c r="AP170" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="175" spans="40:40">
-      <c r="AN175" t="s">
+    <row r="171" spans="42:42">
+      <c r="AP171" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="176" spans="40:40">
-      <c r="AN176" t="s">
+    <row r="172" spans="42:42">
+      <c r="AP172" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="177" spans="40:40">
-      <c r="AN177" t="s">
+    <row r="173" spans="42:42">
+      <c r="AP173" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="178" spans="40:40">
-      <c r="AN178" t="s">
+    <row r="174" spans="42:42">
+      <c r="AP174" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="179" spans="40:40">
-      <c r="AN179" t="s">
+    <row r="175" spans="42:42">
+      <c r="AP175" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="180" spans="40:40">
-      <c r="AN180" t="s">
+    <row r="176" spans="42:42">
+      <c r="AP176" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="181" spans="40:40">
-      <c r="AN181" t="s">
+    <row r="177" spans="42:42">
+      <c r="AP177" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="182" spans="40:40">
-      <c r="AN182" t="s">
+    <row r="178" spans="42:42">
+      <c r="AP178" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="183" spans="40:40">
-      <c r="AN183" t="s">
+    <row r="179" spans="42:42">
+      <c r="AP179" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="184" spans="40:40">
-      <c r="AN184" t="s">
+    <row r="180" spans="42:42">
+      <c r="AP180" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="185" spans="40:40">
-      <c r="AN185" t="s">
+    <row r="181" spans="42:42">
+      <c r="AP181" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="186" spans="40:40">
-      <c r="AN186" t="s">
+    <row r="182" spans="42:42">
+      <c r="AP182" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="187" spans="40:40">
-      <c r="AN187" t="s">
+    <row r="183" spans="42:42">
+      <c r="AP183" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="188" spans="40:40">
-      <c r="AN188" t="s">
+    <row r="184" spans="42:42">
+      <c r="AP184" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="189" spans="40:40">
-      <c r="AN189" t="s">
+    <row r="185" spans="42:42">
+      <c r="AP185" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="190" spans="40:40">
-      <c r="AN190" t="s">
+    <row r="186" spans="42:42">
+      <c r="AP186" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="191" spans="40:40">
-      <c r="AN191" t="s">
+    <row r="187" spans="42:42">
+      <c r="AP187" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="192" spans="40:40">
-      <c r="AN192" t="s">
+    <row r="188" spans="42:42">
+      <c r="AP188" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="193" spans="40:40">
-      <c r="AN193" t="s">
+    <row r="189" spans="42:42">
+      <c r="AP189" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="194" spans="40:40">
-      <c r="AN194" t="s">
+    <row r="190" spans="42:42">
+      <c r="AP190" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="195" spans="40:40">
-      <c r="AN195" t="s">
+    <row r="191" spans="42:42">
+      <c r="AP191" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="196" spans="40:40">
-      <c r="AN196" t="s">
+    <row r="192" spans="42:42">
+      <c r="AP192" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="197" spans="40:40">
-      <c r="AN197" t="s">
+    <row r="193" spans="42:42">
+      <c r="AP193" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="198" spans="40:40">
-      <c r="AN198" t="s">
+    <row r="194" spans="42:42">
+      <c r="AP194" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="199" spans="40:40">
-      <c r="AN199" t="s">
+    <row r="195" spans="42:42">
+      <c r="AP195" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="200" spans="40:40">
-      <c r="AN200" t="s">
+    <row r="196" spans="42:42">
+      <c r="AP196" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="201" spans="40:40">
-      <c r="AN201" t="s">
+    <row r="197" spans="42:42">
+      <c r="AP197" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="202" spans="40:40">
-      <c r="AN202" t="s">
+    <row r="198" spans="42:42">
+      <c r="AP198" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="203" spans="40:40">
-      <c r="AN203" t="s">
+    <row r="199" spans="42:42">
+      <c r="AP199" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="204" spans="40:40">
-      <c r="AN204" t="s">
+    <row r="200" spans="42:42">
+      <c r="AP200" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="205" spans="40:40">
-      <c r="AN205" t="s">
+    <row r="201" spans="42:42">
+      <c r="AP201" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="206" spans="40:40">
-      <c r="AN206" t="s">
+    <row r="202" spans="42:42">
+      <c r="AP202" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="207" spans="40:40">
-      <c r="AN207" t="s">
+    <row r="203" spans="42:42">
+      <c r="AP203" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="208" spans="40:40">
-      <c r="AN208" t="s">
+    <row r="204" spans="42:42">
+      <c r="AP204" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="209" spans="40:40">
-      <c r="AN209" t="s">
+    <row r="205" spans="42:42">
+      <c r="AP205" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="210" spans="40:40">
-      <c r="AN210" t="s">
+    <row r="206" spans="42:42">
+      <c r="AP206" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="211" spans="40:40">
-      <c r="AN211" t="s">
+    <row r="207" spans="42:42">
+      <c r="AP207" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="212" spans="40:40">
-      <c r="AN212" t="s">
+    <row r="208" spans="42:42">
+      <c r="AP208" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="213" spans="40:40">
-      <c r="AN213" t="s">
+    <row r="209" spans="42:42">
+      <c r="AP209" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="214" spans="40:40">
-      <c r="AN214" t="s">
+    <row r="210" spans="42:42">
+      <c r="AP210" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="215" spans="40:40">
-      <c r="AN215" t="s">
+    <row r="211" spans="42:42">
+      <c r="AP211" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="216" spans="40:40">
-      <c r="AN216" t="s">
+    <row r="212" spans="42:42">
+      <c r="AP212" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="217" spans="40:40">
-      <c r="AN217" t="s">
+    <row r="213" spans="42:42">
+      <c r="AP213" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="218" spans="40:40">
-      <c r="AN218" t="s">
+    <row r="214" spans="42:42">
+      <c r="AP214" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="219" spans="40:40">
-      <c r="AN219" t="s">
+    <row r="215" spans="42:42">
+      <c r="AP215" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="220" spans="40:40">
-      <c r="AN220" t="s">
+    <row r="216" spans="42:42">
+      <c r="AP216" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="221" spans="40:40">
-      <c r="AN221" t="s">
+    <row r="217" spans="42:42">
+      <c r="AP217" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="222" spans="40:40">
-      <c r="AN222" t="s">
+    <row r="218" spans="42:42">
+      <c r="AP218" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="223" spans="40:40">
-      <c r="AN223" t="s">
+    <row r="219" spans="42:42">
+      <c r="AP219" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="224" spans="40:40">
-      <c r="AN224" t="s">
+    <row r="220" spans="42:42">
+      <c r="AP220" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="225" spans="40:40">
-      <c r="AN225" t="s">
+    <row r="221" spans="42:42">
+      <c r="AP221" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="226" spans="40:40">
-      <c r="AN226" t="s">
+    <row r="222" spans="42:42">
+      <c r="AP222" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="227" spans="40:40">
-      <c r="AN227" t="s">
+    <row r="223" spans="42:42">
+      <c r="AP223" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="228" spans="40:40">
-      <c r="AN228" t="s">
+    <row r="224" spans="42:42">
+      <c r="AP224" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="229" spans="40:40">
-      <c r="AN229" t="s">
+    <row r="225" spans="42:42">
+      <c r="AP225" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="230" spans="40:40">
-      <c r="AN230" t="s">
+    <row r="226" spans="42:42">
+      <c r="AP226" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="231" spans="40:40">
-      <c r="AN231" t="s">
+    <row r="227" spans="42:42">
+      <c r="AP227" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="232" spans="40:40">
-      <c r="AN232" t="s">
+    <row r="228" spans="42:42">
+      <c r="AP228" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="233" spans="40:40">
-      <c r="AN233" t="s">
+    <row r="229" spans="42:42">
+      <c r="AP229" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="234" spans="40:40">
-      <c r="AN234" t="s">
+    <row r="230" spans="42:42">
+      <c r="AP230" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="235" spans="40:40">
-      <c r="AN235" t="s">
+    <row r="231" spans="42:42">
+      <c r="AP231" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="236" spans="40:40">
-      <c r="AN236" t="s">
+    <row r="232" spans="42:42">
+      <c r="AP232" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="237" spans="40:40">
-      <c r="AN237" t="s">
+    <row r="233" spans="42:42">
+      <c r="AP233" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="238" spans="40:40">
-      <c r="AN238" t="s">
+    <row r="234" spans="42:42">
+      <c r="AP234" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="239" spans="40:40">
-      <c r="AN239" t="s">
+    <row r="235" spans="42:42">
+      <c r="AP235" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="240" spans="40:40">
-      <c r="AN240" t="s">
+    <row r="236" spans="42:42">
+      <c r="AP236" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="241" spans="40:40">
-      <c r="AN241" t="s">
+    <row r="237" spans="42:42">
+      <c r="AP237" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="242" spans="40:40">
-      <c r="AN242" t="s">
+    <row r="238" spans="42:42">
+      <c r="AP238" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="243" spans="40:40">
-      <c r="AN243" t="s">
+    <row r="239" spans="42:42">
+      <c r="AP239" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="244" spans="40:40">
-      <c r="AN244" t="s">
+    <row r="240" spans="42:42">
+      <c r="AP240" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="245" spans="40:40">
-      <c r="AN245" t="s">
+    <row r="241" spans="42:42">
+      <c r="AP241" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="246" spans="40:40">
-      <c r="AN246" t="s">
+    <row r="242" spans="42:42">
+      <c r="AP242" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="247" spans="40:40">
-      <c r="AN247" t="s">
+    <row r="243" spans="42:42">
+      <c r="AP243" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="248" spans="40:40">
-      <c r="AN248" t="s">
+    <row r="244" spans="42:42">
+      <c r="AP244" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="249" spans="40:40">
-      <c r="AN249" t="s">
+    <row r="245" spans="42:42">
+      <c r="AP245" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="250" spans="40:40">
-      <c r="AN250" t="s">
+    <row r="246" spans="42:42">
+      <c r="AP246" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="251" spans="40:40">
-      <c r="AN251" t="s">
+    <row r="247" spans="42:42">
+      <c r="AP247" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="252" spans="40:40">
-      <c r="AN252" t="s">
+    <row r="248" spans="42:42">
+      <c r="AP248" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="253" spans="40:40">
-      <c r="AN253" t="s">
+    <row r="249" spans="42:42">
+      <c r="AP249" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="254" spans="40:40">
-      <c r="AN254" t="s">
+    <row r="250" spans="42:42">
+      <c r="AP250" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="255" spans="40:40">
-      <c r="AN255" t="s">
+    <row r="251" spans="42:42">
+      <c r="AP251" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="256" spans="40:40">
-      <c r="AN256" t="s">
+    <row r="252" spans="42:42">
+      <c r="AP252" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="257" spans="40:40">
-      <c r="AN257" t="s">
+    <row r="253" spans="42:42">
+      <c r="AP253" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="258" spans="40:40">
-      <c r="AN258" t="s">
+    <row r="254" spans="42:42">
+      <c r="AP254" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="259" spans="40:40">
-      <c r="AN259" t="s">
+    <row r="255" spans="42:42">
+      <c r="AP255" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="260" spans="40:40">
-      <c r="AN260" t="s">
+    <row r="256" spans="42:42">
+      <c r="AP256" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="261" spans="40:40">
-      <c r="AN261" t="s">
+    <row r="257" spans="42:42">
+      <c r="AP257" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="262" spans="40:40">
-      <c r="AN262" t="s">
+    <row r="258" spans="42:42">
+      <c r="AP258" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="263" spans="40:40">
-      <c r="AN263" t="s">
+    <row r="259" spans="42:42">
+      <c r="AP259" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="264" spans="40:40">
-      <c r="AN264" t="s">
+    <row r="260" spans="42:42">
+      <c r="AP260" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="265" spans="40:40">
-      <c r="AN265" t="s">
+    <row r="261" spans="42:42">
+      <c r="AP261" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="266" spans="40:40">
-      <c r="AN266" t="s">
+    <row r="262" spans="42:42">
+      <c r="AP262" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="267" spans="40:40">
-      <c r="AN267" t="s">
+    <row r="263" spans="42:42">
+      <c r="AP263" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="268" spans="40:40">
-      <c r="AN268" t="s">
+    <row r="264" spans="42:42">
+      <c r="AP264" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="269" spans="40:40">
-      <c r="AN269" t="s">
+    <row r="265" spans="42:42">
+      <c r="AP265" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="270" spans="40:40">
-      <c r="AN270" t="s">
+    <row r="266" spans="42:42">
+      <c r="AP266" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="271" spans="40:40">
-      <c r="AN271" t="s">
+    <row r="267" spans="42:42">
+      <c r="AP267" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="272" spans="40:40">
-      <c r="AN272" t="s">
+    <row r="268" spans="42:42">
+      <c r="AP268" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="273" spans="40:40">
-      <c r="AN273" t="s">
+    <row r="269" spans="42:42">
+      <c r="AP269" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="274" spans="40:40">
-      <c r="AN274" t="s">
+    <row r="270" spans="42:42">
+      <c r="AP270" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="275" spans="40:40">
-      <c r="AN275" t="s">
+    <row r="271" spans="42:42">
+      <c r="AP271" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="276" spans="40:40">
-      <c r="AN276" t="s">
+    <row r="272" spans="42:42">
+      <c r="AP272" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="277" spans="40:40">
-      <c r="AN277" t="s">
+    <row r="273" spans="42:42">
+      <c r="AP273" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="278" spans="40:40">
-      <c r="AN278" t="s">
+    <row r="274" spans="42:42">
+      <c r="AP274" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="279" spans="40:40">
-      <c r="AN279" t="s">
+    <row r="275" spans="42:42">
+      <c r="AP275" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="280" spans="40:40">
-      <c r="AN280" t="s">
+    <row r="276" spans="42:42">
+      <c r="AP276" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="281" spans="40:40">
-      <c r="AN281" t="s">
+    <row r="277" spans="42:42">
+      <c r="AP277" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="282" spans="40:40">
-      <c r="AN282" t="s">
+    <row r="278" spans="42:42">
+      <c r="AP278" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="283" spans="40:40">
-      <c r="AN283" t="s">
+    <row r="279" spans="42:42">
+      <c r="AP279" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="284" spans="40:40">
-      <c r="AN284" t="s">
+    <row r="280" spans="42:42">
+      <c r="AP280" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="285" spans="40:40">
-      <c r="AN285" t="s">
+    <row r="281" spans="42:42">
+      <c r="AP281" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="286" spans="40:40">
-      <c r="AN286" t="s">
+    <row r="282" spans="42:42">
+      <c r="AP282" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="287" spans="40:40">
-      <c r="AN287" t="s">
+    <row r="283" spans="42:42">
+      <c r="AP283" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="288" spans="40:40">
-      <c r="AN288" t="s">
+    <row r="284" spans="42:42">
+      <c r="AP284" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="289" spans="40:40">
-      <c r="AN289" t="s">
+    <row r="285" spans="42:42">
+      <c r="AP285" t="s">
         <v>675</v>
+      </c>
+    </row>
+    <row r="286" spans="42:42">
+      <c r="AP286" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="287" spans="42:42">
+      <c r="AP287" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="288" spans="42:42">
+      <c r="AP288" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="289" spans="42:42">
+      <c r="AP289" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="841">
   <si>
     <t>alias</t>
   </si>
@@ -1190,13 +1190,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t, g, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1424,9 +1424,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1445,6 +1442,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1646,6 +1646,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1655,9 +1658,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1697,7 +1697,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1766,6 +1766,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1841,6 +1844,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1862,6 +1868,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1907,6 +1916,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1919,6 +1931,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1928,9 +1943,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1955,6 +1967,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2015,12 +2030,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2111,7 +2126,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar, atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2123,7 +2138,7 @@
     <t>turbidity</t>
   </si>
   <si>
-    <t>(Optional) Turbidity measurement (Units: NTU)</t>
+    <t>(Optional) Turbidity measurement (Units: FTU, NTU)</t>
   </si>
   <si>
     <t>pH</t>
@@ -2135,13 +2150,13 @@
     <t>water content</t>
   </si>
   <si>
-    <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: g/g)</t>
+    <t>(Optional) Water content measurement e.g. soil water content of 13.6% (Units: %, cm3/cm3, g/g)</t>
   </si>
   <si>
     <t>alkyl diethers</t>
   </si>
   <si>
-    <t>(Optional) Concentration of alkyl diethers (Units: µg/L)</t>
+    <t>(Optional) Concentration of alkyl diethers (Units: M/L, µg/L)</t>
   </si>
   <si>
     <t>aminopeptidase activity</t>
@@ -2165,19 +2180,19 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/g, µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bromide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of bromide (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: parts/million, µmol/L, mg/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2195,7 +2210,7 @@
     <t>chlorophyll</t>
   </si>
   <si>
-    <t>(Optional) Concentration of chlorophyll (Units: µg/L)</t>
+    <t>(Optional) Concentration of chlorophyll (Units: mg/m3, µg/L)</t>
   </si>
   <si>
     <t>diether lipids</t>
@@ -2231,7 +2246,7 @@
     <t>dissolved organic nitrogen</t>
   </si>
   <si>
-    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: µg/L)</t>
+    <t>(Optional) Dissolved organic nitrogen concentration measured as; total dissolved nitrogen - nh4 - no3 - no2 (Units: mg/L, µg/L)</t>
   </si>
   <si>
     <t>methane</t>
@@ -2255,7 +2270,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: parts/million, mol/L, mg/L)</t>
   </si>
   <si>
     <t>n-alkanes</t>
@@ -2315,7 +2330,7 @@
     <t>phaeopigments</t>
   </si>
   <si>
-    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: µg/L)</t>
+    <t>(Optional) Concentration of phaeopigments; can include multiple phaeopigments (Units: mg/m3, µg/L)</t>
   </si>
   <si>
     <t>phosphate</t>
@@ -2327,13 +2342,13 @@
     <t>phospholipid fatty acid</t>
   </si>
   <si>
-    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/g)</t>
+    <t>(Optional) Concentration of phospholipid fatty acids; can include multiple values (Units: mol/L, mol/g)</t>
   </si>
   <si>
     <t>potassium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of potassium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of potassium (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>redox potential</t>
@@ -2363,7 +2378,7 @@
     <t>sodium</t>
   </si>
   <si>
-    <t>(Optional) Sodium concentration (Units: µmol/L)</t>
+    <t>(Optional) Sodium concentration (Units: parts/million, µmol/L)</t>
   </si>
   <si>
     <t>total organic carbon</t>
@@ -2375,19 +2390,19 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: µmol/L, mg/L)</t>
   </si>
   <si>
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L, µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2471,7 +2486,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2537,7 +2552,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4211,238 +4226,238 @@
         <v>389</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:119" ht="150" customHeight="1">
@@ -4570,238 +4585,238 @@
         <v>390</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -4831,7 +4846,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AP289"/>
+  <dimension ref="G1:AP294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6423,6 +6438,31 @@
         <v>679</v>
       </c>
     </row>
+    <row r="290" spans="42:42">
+      <c r="AP290" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="291" spans="42:42">
+      <c r="AP291" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="292" spans="42:42">
+      <c r="AP292" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="293" spans="42:42">
+      <c r="AP293" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="294" spans="42:42">
+      <c r="AP294" t="s">
+        <v>684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/ERC000019/metadata_template_ERC000019.xlsx
+++ b/templates/ERC000019/metadata_template_ERC000019.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="841">
   <si>
     <t>alias</t>
   </si>
@@ -1190,13 +1190,13 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>biomass</t>
   </si>
   <si>
-    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: t)</t>
+    <t>(Optional) Amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1424,9 +1424,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1445,6 +1442,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1646,6 +1646,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1655,9 +1658,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1697,7 +1697,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1766,6 +1766,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1841,6 +1844,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1862,6 +1868,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1907,6 +1916,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1919,6 +1931,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1928,9 +1943,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1955,6 +1967,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2015,12 +2030,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2111,7 +2126,7 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: bar)</t>
+    <t>(Optional) Pressure to which the sample is subject, in atmospheres (Units: atm)</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2165,7 +2180,7 @@
     <t>bishomohopanol</t>
   </si>
   <si>
-    <t>(Optional) Concentration of bishomohopanol (Units: µg/g)</t>
+    <t>(Optional) Concentration of bishomohopanol (Units: µg/L)</t>
   </si>
   <si>
     <t>bromide</t>
@@ -2177,7 +2192,7 @@
     <t>calcium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of calcium (Units: µmol/L)</t>
+    <t>(Optional) Concentration of calcium (Units: mg/L)</t>
   </si>
   <si>
     <t>carbon/nitrogen ratio</t>
@@ -2255,7 +2270,7 @@
     <t>magnesium</t>
   </si>
   <si>
-    <t>(Optional) Concentration of magnesium (Units: parts/million)</t>
+    <t>(Optional) Concentration of magnesium (Units: mg/L)</t>
   </si>
   <si>
     <t>n-alkanes</t>
@@ -2375,19 +2390,19 @@
     <t>sulfate</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfate (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfate (Units: mg/L)</t>
   </si>
   <si>
     <t>sulfide</t>
   </si>
   <si>
-    <t>(Optional) Concentration of sulfide (Units: µmol/L)</t>
+    <t>(Optional) Concentration of sulfide (Units: mg/L)</t>
   </si>
   <si>
     <t>total nitrogen content</t>
   </si>
   <si>
-    <t>(Optional) Total nitrogen content of the sample (Units: µmol/L)</t>
+    <t>(Optional) Total nitrogen content of the sample (Units: µg/L)</t>
   </si>
   <si>
     <t>alkalinity</t>
@@ -2471,7 +2486,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -2537,7 +2552,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Mandatory) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4211,238 +4226,238 @@
         <v>389</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:119" ht="150" customHeight="1">
@@ -4570,238 +4585,238 @@
         <v>390</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="CO2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="CP2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="CQ2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="CR2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="CS2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="CT2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="CU2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="CV2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="CW2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="CX2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="CY2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="CZ2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="DA2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="DB2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="DC2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="DD2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="DE2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="DF2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="DG2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="DH2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="DI2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="DJ2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="DK2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="DL2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="DM2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="DN2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="DO2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -4831,7 +4846,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AP289"/>
+  <dimension ref="G1:AP294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6423,6 +6438,31 @@
         <v>679</v>
       </c>
     </row>
+    <row r="290" spans="42:42">
+      <c r="AP290" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="291" spans="42:42">
+      <c r="AP291" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="292" spans="42:42">
+      <c r="AP292" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="293" spans="42:42">
+      <c r="AP293" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="294" spans="42:42">
+      <c r="AP294" t="s">
+        <v>684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
